--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="76">
   <si>
     <t>Sex</t>
   </si>
@@ -76,178 +76,172 @@
     <t>84%</t>
   </si>
   <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
     <t>70%</t>
   </si>
   <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
     <t>68%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>45%</t>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Fav</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>41%</t>
   </si>
   <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
     <t>69%</t>
   </si>
   <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>2022-06-13</t>
+    <t>2022-06-14</t>
   </si>
 </sst>
 </file>
@@ -657,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -669,28 +663,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>1007.999999999999</v>
+        <v>1023.999999999999</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>280.9999999999999</v>
+        <v>263.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -710,13 +704,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>243</v>
@@ -739,13 +733,13 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>357.0000000000005</v>
@@ -754,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M4">
         <v>63.00000000000016</v>
@@ -768,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -780,28 +774,28 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>330.9999999999999</v>
+        <v>313.9999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -821,16 +815,16 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -838,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,28 +844,16 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>130</v>
-      </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7">
-        <v>273</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -879,28 +861,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -908,28 +890,40 @@
         <v>13</v>
       </c>
       <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>1.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>478.0000000000003</v>
+      </c>
+      <c r="J9">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>1.9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9">
-        <v>150</v>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>116.0000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -937,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -949,28 +943,28 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>478.0000000000003</v>
+        <v>1140</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M10">
-        <v>116.0000000000001</v>
+        <v>355.9999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -978,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -990,28 +984,28 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11">
-        <v>1124</v>
+        <v>1043</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M11">
-        <v>373</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1019,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1031,28 +1025,16 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12">
-        <v>1014</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12">
-        <v>165</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1060,10 +1042,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1072,28 +1054,28 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>1214</v>
+        <v>299</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1101,10 +1083,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1113,28 +1095,16 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>399</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14">
-        <v>257</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1142,10 +1112,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1154,16 +1124,16 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>824</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1171,28 +1141,40 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16">
-        <v>109</v>
+        <v>292.0000000000002</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>82.00000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1200,40 +1182,40 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17">
-        <v>292.0000000000002</v>
+        <v>720.9999999999999</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>82.00000000000009</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,40 +1223,28 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18">
-        <v>720.9999999999998</v>
-      </c>
-      <c r="J18">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18">
-        <v>210</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,28 +1252,28 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1311,28 +1281,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20">
-        <v>461</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1340,10 +1310,10 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1352,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21">
-        <v>222</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1369,28 +1339,28 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22">
-        <v>608</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1398,28 +1368,28 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23">
-        <v>118</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1427,28 +1397,28 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I24">
-        <v>299</v>
+        <v>37.00000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1456,28 +1426,28 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>37.00000000000001</v>
+        <v>76.9999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1485,28 +1455,40 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>76.9999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1514,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>1.4</v>
@@ -1526,16 +1508,16 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>441</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1543,40 +1525,40 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>1.7</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I28">
-        <v>1426</v>
+        <v>1163</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M28">
-        <v>355</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1590,19 +1572,19 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>177</v>
@@ -1619,34 +1601,34 @@
         <v>2.2</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I30">
         <v>606.0000000000001</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M30">
-        <v>889</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1654,28 +1636,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>2.3</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I31">
-        <v>20.99999999999991</v>
+        <v>149.9999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1689,19 +1671,19 @@
         <v>2.5</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I32">
         <v>990</v>
@@ -1718,19 +1700,19 @@
         <v>1.2</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I33">
         <v>163.9999999999999</v>
@@ -1741,40 +1723,40 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>1.3</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I34">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M34">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1782,28 +1764,28 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>1.4</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35">
-        <v>948</v>
+        <v>982</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1817,19 +1799,19 @@
         <v>1.6</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I36">
         <v>1298</v>
@@ -1838,10 +1820,10 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M36">
         <v>162</v>
@@ -1852,40 +1834,40 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>1.7</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I37">
-        <v>1097</v>
+        <v>834</v>
       </c>
       <c r="J37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M37">
-        <v>429</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1899,19 +1881,19 @@
         <v>1.9</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I38">
         <v>130</v>
@@ -1928,19 +1910,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I39">
         <v>203</v>
@@ -1957,34 +1939,34 @@
         <v>2.2</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I40">
         <v>683</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>632</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1998,19 +1980,19 @@
         <v>2.4</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I41">
         <v>317</v>
@@ -2033,13 +2015,13 @@
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I42">
         <v>147.9999999999999</v>
@@ -2050,40 +2032,40 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>1.3</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I43">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M43">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2091,28 +2073,28 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>1.4</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>588</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2126,19 +2108,19 @@
         <v>1.5</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>243</v>
@@ -2155,19 +2137,19 @@
         <v>1.6</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I46">
         <v>1227</v>
@@ -2184,19 +2166,19 @@
         <v>1.7</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I47">
         <v>1090</v>
@@ -2213,19 +2195,19 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I48">
         <v>164</v>
@@ -2248,13 +2230,13 @@
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49">
         <v>965</v>
@@ -2271,19 +2253,19 @@
         <v>2.3</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I50">
         <v>395</v>
@@ -2294,28 +2276,28 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>1.3</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I51">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2329,19 +2311,19 @@
         <v>1.5</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I52">
         <v>480</v>
@@ -2358,19 +2340,19 @@
         <v>1.6</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I53">
         <v>564</v>
@@ -2387,22 +2369,22 @@
         <v>1.8</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E54">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I54">
-        <v>422</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2410,28 +2392,28 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
         <v>20</v>
       </c>
-      <c r="E55">
-        <v>30</v>
-      </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I55">
-        <v>726</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2439,28 +2421,28 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>396</v>
       </c>
       <c r="C56">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2474,19 +2456,19 @@
         <v>1.1</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E57">
         <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I57">
         <v>241.0000000000005</v>
@@ -2497,28 +2479,28 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C58">
         <v>1.2</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I58">
-        <v>659.9999999999994</v>
+        <v>591.9999999999992</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2526,7 +2508,7 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C59">
         <v>1.3</v>
@@ -2538,28 +2520,28 @@
         <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I59">
-        <v>2279</v>
+        <v>2399</v>
       </c>
       <c r="J59">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M59">
-        <v>243</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2567,40 +2549,40 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C60">
         <v>1.4</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I60">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="J60">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M60">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2608,28 +2590,28 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C61">
         <v>1.5</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I61">
-        <v>2248</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2649,16 +2631,16 @@
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I62">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2678,13 +2660,13 @@
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I63">
         <v>855</v>
@@ -2701,19 +2683,19 @@
         <v>1.9</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I64">
         <v>80</v>
@@ -2736,13 +2718,13 @@
         <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I65">
         <v>466.0000000000003</v>
@@ -2753,40 +2735,40 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C66">
         <v>1.2</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E66">
         <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I66">
-        <v>1711</v>
+        <v>1611</v>
       </c>
       <c r="J66">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M66">
-        <v>330.9999999999998</v>
+        <v>230.9999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2794,37 +2776,37 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C67">
         <v>1.3</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I67">
-        <v>1925</v>
+        <v>1974</v>
       </c>
       <c r="J67">
         <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M67">
         <v>501</v>
@@ -2835,40 +2817,40 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C68">
         <v>1.4</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I68">
-        <v>1737</v>
+        <v>1805</v>
       </c>
       <c r="J68">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M68">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2876,40 +2858,40 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C69">
         <v>1.5</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E69">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I69">
-        <v>1467</v>
+        <v>1556</v>
       </c>
       <c r="J69">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M69">
-        <v>176</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2917,28 +2899,28 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70">
         <v>1.7</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E70">
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I70">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2952,19 +2934,19 @@
         <v>1.8</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E71">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I71">
         <v>885</v>
@@ -2981,19 +2963,19 @@
         <v>1.1</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>428.0000000000002</v>
@@ -3004,40 +2986,40 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <v>1.2</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E73">
         <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>1323</v>
+        <v>1223</v>
       </c>
       <c r="J73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M73">
-        <v>348.9999999999999</v>
+        <v>248.9999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3045,40 +3027,40 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C74">
         <v>1.3</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>60</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I74">
-        <v>1701</v>
+        <v>1722</v>
       </c>
       <c r="J74">
         <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M74">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3086,40 +3068,40 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>1.4</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E75">
         <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I75">
-        <v>984</v>
+        <v>1089</v>
       </c>
       <c r="J75">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="L75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M75">
-        <v>164</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3139,13 +3121,13 @@
         <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I76">
         <v>1449</v>
@@ -3162,19 +3144,19 @@
         <v>1.7</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I77">
         <v>136</v>
@@ -3191,19 +3173,19 @@
         <v>1.8</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I78">
         <v>324</v>
@@ -3220,19 +3202,19 @@
         <v>1.1</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79">
         <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I79">
         <v>308.0000000000001</v>
@@ -3241,10 +3223,10 @@
         <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M79">
         <v>63.00000000000001</v>
@@ -3255,28 +3237,28 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80">
         <v>1.2</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>70</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I80">
-        <v>343.9999999999999</v>
+        <v>243.9999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3290,19 +3272,19 @@
         <v>1.3</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I81">
         <v>515</v>
@@ -3311,10 +3293,10 @@
         <v>12</v>
       </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M81">
         <v>189</v>
@@ -3325,28 +3307,28 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <v>1.4</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82">
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I82">
-        <v>579</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3360,19 +3342,19 @@
         <v>1.5</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E83">
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I83">
         <v>712</v>
@@ -3389,19 +3371,19 @@
         <v>1.1</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E84">
         <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I84">
         <v>177.0000000000001</v>
@@ -3412,28 +3394,28 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>1.2</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E85">
         <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I85">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3447,19 +3429,19 @@
         <v>1.3</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E86">
         <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I86">
         <v>201</v>
@@ -3470,28 +3452,28 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>1.4</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E87">
         <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I87">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3511,16 +3493,16 @@
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I88">
-        <v>21.99999999999989</v>
+        <v>21.99999999999983</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3528,40 +3510,40 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C89">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E89">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I89">
-        <v>3314.999999999999</v>
+        <v>95</v>
       </c>
       <c r="J89">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="L89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M89">
-        <v>392.9999999999998</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3569,40 +3551,40 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C90">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E90">
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I90">
-        <v>328</v>
+        <v>3115</v>
       </c>
       <c r="J90">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K90" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="L90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M90">
-        <v>182</v>
+        <v>292.9999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3610,28 +3592,28 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E91">
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I91">
-        <v>79.0000000000002</v>
+        <v>227.9999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3645,34 +3627,34 @@
         <v>2.6</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E92">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I92">
         <v>1976</v>
       </c>
       <c r="J92">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M92">
-        <v>150.9999999999999</v>
+        <v>91.99999999999989</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3686,19 +3668,19 @@
         <v>3.2</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I93">
         <v>979</v>
@@ -3715,19 +3697,19 @@
         <v>1.2</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E94">
         <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I94">
         <v>203.9999999999998</v>
@@ -3738,28 +3720,28 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95">
         <v>1.3</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I95">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J95">
         <v>19</v>
@@ -3768,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="L95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M95">
         <v>124</v>
@@ -3785,19 +3767,19 @@
         <v>1.4</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E96">
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I96">
         <v>65</v>
@@ -3814,22 +3796,22 @@
         <v>1.6</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E97">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I97">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3837,40 +3819,40 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C98">
         <v>1.7</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E98">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I98">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="J98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K98" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L98" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M98">
-        <v>238</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3878,40 +3860,40 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C99">
         <v>1.8</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I99">
-        <v>807</v>
+        <v>885</v>
       </c>
       <c r="J99">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K99" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M99">
-        <v>385</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3919,40 +3901,40 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C100">
         <v>1.9</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I100">
-        <v>545</v>
+        <v>445</v>
       </c>
       <c r="J100">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M100">
-        <v>799</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3966,34 +3948,22 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I101">
-        <v>44</v>
-      </c>
-      <c r="J101">
-        <v>28</v>
-      </c>
-      <c r="K101" t="s">
-        <v>73</v>
-      </c>
-      <c r="L101" t="s">
-        <v>77</v>
-      </c>
-      <c r="M101">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4001,40 +3971,40 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C102">
         <v>2.1</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I102">
-        <v>3807</v>
+        <v>3606.999999999999</v>
       </c>
       <c r="J102">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K102" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="L102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M102">
-        <v>586.9999999999998</v>
+        <v>486.9999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4042,40 +4012,40 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103">
         <v>2.3</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I103">
-        <v>1406</v>
+        <v>1306</v>
       </c>
       <c r="J103">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K103" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M103">
-        <v>357</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4083,28 +4053,28 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104">
         <v>2.5</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H104" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I104">
-        <v>901.0000000000001</v>
+        <v>753.0000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4118,19 +4088,19 @@
         <v>2.6</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I105">
         <v>1566</v>
@@ -4147,19 +4117,19 @@
         <v>3.2</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H106" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I106">
         <v>1679</v>
@@ -4182,13 +4152,13 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H107" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I107">
         <v>443.9999999999998</v>
@@ -4205,34 +4175,34 @@
         <v>1.3</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108">
         <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I108">
         <v>1060</v>
       </c>
       <c r="J108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="L108" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M108">
-        <v>151</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4252,28 +4222,28 @@
         <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I109">
         <v>1421</v>
       </c>
       <c r="J109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K109" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M109">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4287,19 +4257,19 @@
         <v>1.5</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E110">
         <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H110" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I110">
         <v>975</v>
@@ -4310,28 +4280,28 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C111">
         <v>1.6</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E111">
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H111" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I111">
-        <v>878</v>
+        <v>989</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4339,40 +4309,40 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C112">
         <v>1.7</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I112">
-        <v>2549</v>
+        <v>2513</v>
       </c>
       <c r="J112">
         <v>31</v>
       </c>
       <c r="K112" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L112" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M112">
-        <v>543</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4392,28 +4362,28 @@
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I113">
         <v>1164</v>
       </c>
       <c r="J113">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K113" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L113" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M113">
-        <v>541</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4421,40 +4391,40 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114">
         <v>1.9</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I114">
-        <v>1536</v>
+        <v>1436</v>
       </c>
       <c r="J114">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M114">
-        <v>758</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4468,34 +4438,22 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I115">
-        <v>547</v>
-      </c>
-      <c r="J115">
-        <v>23</v>
-      </c>
-      <c r="K115" t="s">
-        <v>75</v>
-      </c>
-      <c r="L115" t="s">
-        <v>77</v>
-      </c>
-      <c r="M115">
-        <v>55</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4509,34 +4467,34 @@
         <v>2.1</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E116">
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G116" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I116">
-        <v>3453</v>
+        <v>3452.999999999999</v>
       </c>
       <c r="J116">
         <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L116" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M116">
-        <v>564.9999999999999</v>
+        <v>564.9999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4550,34 +4508,34 @@
         <v>2.3</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E117">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I117">
         <v>1859</v>
       </c>
       <c r="J117">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L117" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M117">
-        <v>713</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4591,19 +4549,19 @@
         <v>2.5</v>
       </c>
       <c r="D118" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I118">
         <v>549</v>
@@ -4620,19 +4578,19 @@
         <v>2.6</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E119">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I119">
         <v>2167</v>
@@ -4641,10 +4599,10 @@
         <v>10</v>
       </c>
       <c r="K119" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M119">
         <v>264.9999999999999</v>
@@ -4661,19 +4619,19 @@
         <v>2.7</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I120">
         <v>424</v>
@@ -4690,19 +4648,19 @@
         <v>2.8</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E121">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G121" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I121">
         <v>449</v>
@@ -4713,28 +4671,28 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E122">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G122" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I122">
-        <v>269</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4748,19 +4706,19 @@
         <v>3.2</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E123">
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H123" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I123">
         <v>1034</v>
@@ -4777,19 +4735,19 @@
         <v>1.2</v>
       </c>
       <c r="D124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E124">
         <v>50</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I124">
         <v>416.9999999999999</v>
@@ -4806,19 +4764,19 @@
         <v>1.3</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E125">
         <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I125">
         <v>835</v>
@@ -4827,10 +4785,10 @@
         <v>11</v>
       </c>
       <c r="K125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L125" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M125">
         <v>169</v>
@@ -4847,34 +4805,34 @@
         <v>1.4</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126">
         <v>50</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I126">
         <v>1222</v>
       </c>
       <c r="J126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K126" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="L126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M126">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4894,13 +4852,13 @@
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I127">
         <v>1042</v>
@@ -4911,40 +4869,40 @@
         <v>14</v>
       </c>
       <c r="B128">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C128">
         <v>1.6</v>
       </c>
       <c r="D128" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E128">
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I128">
-        <v>1203</v>
+        <v>1255</v>
       </c>
       <c r="J128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="L128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M128">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4952,37 +4910,37 @@
         <v>14</v>
       </c>
       <c r="B129">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C129">
         <v>1.7</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I129">
-        <v>936</v>
+        <v>1000</v>
       </c>
       <c r="J129">
         <v>16</v>
       </c>
       <c r="K129" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M129">
         <v>217</v>
@@ -4999,34 +4957,34 @@
         <v>1.8</v>
       </c>
       <c r="D130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I130">
         <v>55</v>
       </c>
       <c r="J130">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K130" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L130" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M130">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5034,28 +4992,40 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C131">
         <v>1.9</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E131">
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G131" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H131" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I131">
-        <v>1003</v>
+        <v>903</v>
+      </c>
+      <c r="J131">
+        <v>10</v>
+      </c>
+      <c r="K131" t="s">
+        <v>33</v>
+      </c>
+      <c r="L131" t="s">
+        <v>75</v>
+      </c>
+      <c r="M131">
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5069,19 +5039,19 @@
         <v>2.1</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E132">
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I132">
         <v>2252</v>
@@ -5092,28 +5062,28 @@
         <v>14</v>
       </c>
       <c r="B133">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C133">
         <v>2.2</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133">
         <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I133">
-        <v>270</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5127,34 +5097,34 @@
         <v>2.3</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E134">
         <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I134">
         <v>1319</v>
       </c>
       <c r="J134">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K134" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L134" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M134">
-        <v>634</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5174,13 +5144,13 @@
         <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H135" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I135">
         <v>838</v>
@@ -5197,19 +5167,19 @@
         <v>2.7</v>
       </c>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H136" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I136">
         <v>189</v>
@@ -5226,19 +5196,19 @@
         <v>1.2</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E137">
         <v>60</v>
       </c>
       <c r="F137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H137" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I137">
         <v>406.9999999999999</v>
@@ -5255,19 +5225,19 @@
         <v>1.3</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E138">
         <v>60</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H138" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I138">
         <v>539</v>
@@ -5284,19 +5254,19 @@
         <v>1.4</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E139">
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G139" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H139" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I139">
         <v>780</v>
@@ -5313,19 +5283,19 @@
         <v>1.5</v>
       </c>
       <c r="D140" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E140">
         <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I140">
         <v>335</v>
@@ -5342,19 +5312,19 @@
         <v>1.6</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E141">
         <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H141" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I141">
         <v>1013</v>
@@ -5371,19 +5341,19 @@
         <v>1.7</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E142">
         <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H142" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I142">
         <v>688</v>
@@ -5400,19 +5370,19 @@
         <v>1.8</v>
       </c>
       <c r="D143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E143">
         <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I143">
         <v>500</v>
@@ -5435,13 +5405,13 @@
         <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H144" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I144">
         <v>195</v>
@@ -5458,19 +5428,19 @@
         <v>2.1</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145">
         <v>60</v>
       </c>
       <c r="F145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H145" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I145">
         <v>1371</v>
@@ -5487,19 +5457,19 @@
         <v>2.2</v>
       </c>
       <c r="D146" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E146">
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H146" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I146">
         <v>323</v>
@@ -5522,13 +5492,13 @@
         <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I147">
         <v>634</v>
@@ -5545,19 +5515,19 @@
         <v>1.2</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E148">
         <v>70</v>
       </c>
       <c r="F148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I148">
         <v>256.9999999999999</v>
@@ -5574,19 +5544,19 @@
         <v>1.3</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149">
         <v>70</v>
       </c>
       <c r="F149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H149" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I149">
         <v>339</v>
@@ -5603,19 +5573,19 @@
         <v>1.4</v>
       </c>
       <c r="D150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E150">
         <v>70</v>
       </c>
       <c r="F150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G150" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H150" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I150">
         <v>383</v>
@@ -5632,19 +5602,19 @@
         <v>1.7</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E151">
         <v>70</v>
       </c>
       <c r="F151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G151" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H151" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I151">
         <v>451</v>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="75">
   <si>
     <t>Sex</t>
   </si>
@@ -73,175 +73,172 @@
     <t>94%</t>
   </si>
   <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
     <t>84%</t>
   </si>
   <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>88%</t>
+    <t>76%</t>
   </si>
   <si>
     <t>72%</t>
   </si>
   <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
     <t>64%</t>
   </si>
   <si>
-    <t>98%</t>
+    <t>77%</t>
   </si>
   <si>
     <t>82%</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>66%</t>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Fav</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>2022-06-14</t>
+    <t>2022-06-15</t>
   </si>
 </sst>
 </file>
@@ -599,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -663,28 +660,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>1023.999999999999</v>
+        <v>1035.999999999999</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>263.9999999999999</v>
+        <v>363.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -704,13 +701,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>243</v>
@@ -733,28 +730,28 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <v>357.0000000000005</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4">
-        <v>63.00000000000016</v>
+        <v>47.00000000000014</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -774,28 +771,28 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="J5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>313.9999999999999</v>
+        <v>413.9999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -803,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>1.3</v>
@@ -815,16 +812,16 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>750</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -832,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -844,16 +841,28 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>399</v>
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -861,28 +870,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -890,40 +899,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>478.0000000000003</v>
-      </c>
-      <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9">
-        <v>116.0000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -931,10 +928,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -943,28 +940,28 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>1140</v>
+        <v>478.0000000000003</v>
       </c>
       <c r="J10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10">
-        <v>355.9999999999999</v>
+        <v>106.0000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -972,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -984,28 +981,28 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>1043</v>
+        <v>1152</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>194</v>
+        <v>355.9999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1013,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1025,16 +1022,28 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12">
-        <v>1214</v>
+        <v>1072</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1042,10 +1051,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1054,28 +1063,16 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>299</v>
-      </c>
-      <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13">
-        <v>157</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1083,10 +1080,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C14">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1095,16 +1092,28 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14">
-        <v>824</v>
+        <v>399</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14">
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1112,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1124,16 +1133,16 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15">
-        <v>109</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1141,40 +1150,28 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16">
-        <v>292.0000000000002</v>
-      </c>
-      <c r="J16">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16">
-        <v>82.00000000000009</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1182,40 +1179,40 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17">
-        <v>720.9999999999999</v>
+        <v>292.0000000000002</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>191</v>
+        <v>72.00000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1223,28 +1220,40 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18">
-        <v>447</v>
+        <v>733</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18">
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1252,28 +1261,28 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1281,28 +1290,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20">
-        <v>222</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1310,10 +1319,10 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1322,16 +1331,16 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>608</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1339,28 +1348,28 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22">
-        <v>118</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1368,28 +1377,28 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23">
-        <v>299</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1397,28 +1406,28 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24">
-        <v>37.00000000000001</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1426,28 +1435,28 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25">
-        <v>76.9999999999999</v>
+        <v>37.00000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1455,40 +1464,28 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26">
-        <v>13</v>
-      </c>
-      <c r="J26">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26">
-        <v>133</v>
+        <v>70.00000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1496,28 +1493,28 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>506</v>
+        <v>76.9999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1525,40 +1522,40 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28">
-        <v>1163</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M28">
-        <v>286</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1566,28 +1563,28 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I29">
-        <v>177</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1595,40 +1592,40 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30">
-        <v>606.0000000000001</v>
+        <v>1163</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>772</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1636,28 +1633,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C31">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>149.9999999999999</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1665,28 +1662,40 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I32">
-        <v>990</v>
+        <v>706</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32">
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1694,28 +1703,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33">
-        <v>163.9999999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1723,40 +1732,28 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34">
-        <v>684</v>
-      </c>
-      <c r="J34">
-        <v>16</v>
-      </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34">
-        <v>283</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1764,28 +1761,28 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I35">
-        <v>982</v>
+        <v>163.9999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1793,40 +1790,40 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36">
-        <v>1298</v>
+        <v>684</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M36">
-        <v>162</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1834,40 +1831,28 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37">
-        <v>834</v>
-      </c>
-      <c r="J37">
-        <v>13</v>
-      </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37">
-        <v>360</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1875,28 +1860,40 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I38">
-        <v>130</v>
+        <v>1298</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1904,28 +1901,40 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39">
-        <v>203</v>
+        <v>834</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39">
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1933,10 +1942,10 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
@@ -1945,28 +1954,16 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40">
-        <v>683</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40">
-        <v>515</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1974,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -1986,16 +1983,16 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41">
-        <v>317</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2003,28 +2000,40 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C42">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42">
-        <v>147.9999999999999</v>
+        <v>783</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42">
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2032,40 +2041,28 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43">
-        <v>545</v>
-      </c>
-      <c r="J43">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43">
-        <v>209</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2073,28 +2070,28 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44">
-        <v>620</v>
+        <v>147.9999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2102,28 +2099,40 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45">
-        <v>243</v>
+        <v>545</v>
+      </c>
+      <c r="J45">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45">
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2134,25 +2143,25 @@
         <v>25</v>
       </c>
       <c r="C46">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46">
-        <v>1227</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2160,28 +2169,28 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C47">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47">
-        <v>1090</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2189,28 +2198,28 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48">
-        <v>164</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2218,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I49">
-        <v>965</v>
+        <v>990</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2250,25 +2259,25 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50">
-        <v>395</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2279,25 +2288,25 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51">
-        <v>343</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2305,28 +2314,28 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52">
-        <v>480</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2334,86 +2343,86 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53">
-        <v>564</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54">
-        <v>244</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I55">
-        <v>62</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2421,28 +2430,28 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="C56">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I56">
-        <v>656</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2450,28 +2459,28 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="C57">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57">
-        <v>241.0000000000005</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2479,28 +2488,28 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="C58">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E58">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I58">
-        <v>591.9999999999992</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2508,40 +2517,40 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I59">
-        <v>2399</v>
+        <v>105</v>
       </c>
       <c r="J59">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M59">
-        <v>314</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2549,40 +2558,28 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="C60">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I60">
-        <v>380</v>
-      </c>
-      <c r="J60">
-        <v>69</v>
-      </c>
-      <c r="K60" t="s">
-        <v>29</v>
-      </c>
-      <c r="L60" t="s">
-        <v>75</v>
-      </c>
-      <c r="M60">
-        <v>106</v>
+        <v>250.0000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2590,28 +2587,28 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="C61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I61">
-        <v>2181</v>
+        <v>619.9999999999993</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2619,28 +2616,40 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="C62">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I62">
-        <v>703</v>
+        <v>2426</v>
+      </c>
+      <c r="J62">
+        <v>62</v>
+      </c>
+      <c r="K62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62">
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2648,28 +2657,40 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="C63">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
       <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>274</v>
+      </c>
+      <c r="J63">
         <v>67</v>
       </c>
-      <c r="G63" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63">
-        <v>855</v>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63">
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2677,28 +2698,28 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="C64">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I64">
-        <v>80</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2706,28 +2727,28 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C65">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I65">
-        <v>466.0000000000003</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2735,40 +2756,28 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="C66">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I66">
-        <v>1611</v>
-      </c>
-      <c r="J66">
-        <v>45</v>
-      </c>
-      <c r="K66" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66">
-        <v>230.9999999999999</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2776,40 +2785,28 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I67">
-        <v>1974</v>
-      </c>
-      <c r="J67">
-        <v>45</v>
-      </c>
-      <c r="K67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L67" t="s">
-        <v>75</v>
-      </c>
-      <c r="M67">
-        <v>501</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2817,40 +2814,28 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C68">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I68">
-        <v>1805</v>
-      </c>
-      <c r="J68">
-        <v>45</v>
-      </c>
-      <c r="K68" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68">
-        <v>362</v>
+        <v>475.0000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2858,40 +2843,40 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="C69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I69">
-        <v>1556</v>
+        <v>1639</v>
       </c>
       <c r="J69">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K69" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M69">
-        <v>265</v>
+        <v>325.9999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2899,28 +2884,40 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="C70">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I70">
-        <v>73</v>
+        <v>2001</v>
+      </c>
+      <c r="J70">
+        <v>41</v>
+      </c>
+      <c r="K70" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70">
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2928,28 +2925,40 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C71">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I71">
-        <v>885</v>
+        <v>1705</v>
+      </c>
+      <c r="J71">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M71">
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2957,28 +2966,40 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C72">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I72">
-        <v>428.0000000000002</v>
+        <v>1504</v>
+      </c>
+      <c r="J72">
+        <v>35</v>
+      </c>
+      <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72" t="s">
+        <v>74</v>
+      </c>
+      <c r="M72">
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2986,40 +3007,28 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C73">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I73">
-        <v>1223</v>
-      </c>
-      <c r="J73">
-        <v>24</v>
-      </c>
-      <c r="K73" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73">
-        <v>248.9999999999999</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3027,40 +3036,28 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I74">
-        <v>1722</v>
-      </c>
-      <c r="J74">
-        <v>23</v>
-      </c>
-      <c r="K74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L74" t="s">
-        <v>75</v>
-      </c>
-      <c r="M74">
-        <v>328</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3068,40 +3065,28 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C75">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I75">
-        <v>1089</v>
-      </c>
-      <c r="J75">
-        <v>15</v>
-      </c>
-      <c r="K75" t="s">
-        <v>71</v>
-      </c>
-      <c r="L75" t="s">
-        <v>75</v>
-      </c>
-      <c r="M75">
-        <v>269</v>
+        <v>437.0000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3109,28 +3094,40 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C76">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E76">
         <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I76">
-        <v>1449</v>
+        <v>1251</v>
+      </c>
+      <c r="J76">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>243.9999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3138,28 +3135,40 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C77">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I77">
-        <v>136</v>
+        <v>1749</v>
+      </c>
+      <c r="J77">
+        <v>23</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77">
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3167,28 +3176,40 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C78">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I78">
-        <v>324</v>
+        <v>1089</v>
+      </c>
+      <c r="J78">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" t="s">
+        <v>74</v>
+      </c>
+      <c r="M78">
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3196,40 +3217,40 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C79">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I79">
-        <v>308.0000000000001</v>
+        <v>1397</v>
       </c>
       <c r="J79">
         <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M79">
-        <v>63.00000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3237,28 +3258,28 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E80">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I80">
-        <v>243.9999999999999</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3266,40 +3287,28 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I81">
-        <v>515</v>
-      </c>
-      <c r="J81">
-        <v>12</v>
-      </c>
-      <c r="K81" t="s">
-        <v>23</v>
-      </c>
-      <c r="L81" t="s">
-        <v>75</v>
-      </c>
-      <c r="M81">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3307,28 +3316,40 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C82">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I82">
-        <v>647</v>
+        <v>317.0000000000001</v>
+      </c>
+      <c r="J82">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82">
+        <v>63.00000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3336,28 +3357,40 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C83">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E83">
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I83">
-        <v>712</v>
+        <v>271.9999999999999</v>
+      </c>
+      <c r="J83">
+        <v>11</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M83">
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3365,28 +3398,40 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C84">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I84">
-        <v>177.0000000000001</v>
+        <v>542</v>
+      </c>
+      <c r="J84">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84">
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3394,28 +3439,28 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C85">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I85">
-        <v>157</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3423,28 +3468,28 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D86" t="s">
         <v>53</v>
       </c>
       <c r="E86">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I86">
-        <v>201</v>
+        <v>712</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3452,28 +3497,28 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C87">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E87">
         <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I87">
-        <v>252</v>
+        <v>177.0000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3481,28 +3526,28 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>1.2</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G88" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I88">
-        <v>21.99999999999983</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3510,40 +3555,28 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D89" t="s">
         <v>54</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I89">
-        <v>95</v>
-      </c>
-      <c r="J89">
-        <v>35</v>
-      </c>
-      <c r="K89" t="s">
-        <v>72</v>
-      </c>
-      <c r="L89" t="s">
-        <v>75</v>
-      </c>
-      <c r="M89">
-        <v>363</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3551,40 +3584,28 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G90" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I90">
-        <v>3115</v>
-      </c>
-      <c r="J90">
-        <v>34</v>
-      </c>
-      <c r="K90" t="s">
-        <v>34</v>
-      </c>
-      <c r="L90" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90">
-        <v>292.9999999999998</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3592,28 +3613,28 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C91">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E91">
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I91">
-        <v>227.9999999999998</v>
+        <v>41.99999999999989</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3621,40 +3642,40 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="C92">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I92">
-        <v>1976</v>
+        <v>42</v>
       </c>
       <c r="J92">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M92">
-        <v>91.99999999999989</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3662,28 +3683,40 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G93" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I93">
-        <v>979</v>
+        <v>3214</v>
+      </c>
+      <c r="J93">
+        <v>34</v>
+      </c>
+      <c r="K93" t="s">
+        <v>34</v>
+      </c>
+      <c r="L93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93">
+        <v>292.9999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3691,28 +3724,28 @@
         <v>14</v>
       </c>
       <c r="B94">
+        <v>166</v>
+      </c>
+      <c r="C94">
+        <v>2.3</v>
+      </c>
+      <c r="D94" t="s">
         <v>55</v>
       </c>
-      <c r="C94">
-        <v>1.2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>53</v>
-      </c>
       <c r="E94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I94">
-        <v>203.9999999999998</v>
+        <v>328.0000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3720,40 +3753,28 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C95">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I95">
-        <v>300</v>
-      </c>
-      <c r="J95">
-        <v>19</v>
-      </c>
-      <c r="K95" t="s">
-        <v>19</v>
-      </c>
-      <c r="L95" t="s">
-        <v>75</v>
-      </c>
-      <c r="M95">
-        <v>124</v>
+        <v>31.00000000000014</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3761,28 +3782,40 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="C96">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G96" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I96">
-        <v>65</v>
+        <v>1976</v>
+      </c>
+      <c r="J96">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>56</v>
+      </c>
+      <c r="L96" t="s">
+        <v>74</v>
+      </c>
+      <c r="M96">
+        <v>91.99999999999991</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3790,28 +3823,28 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="C97">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I97">
-        <v>1113</v>
+        <v>879</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3819,40 +3852,28 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="C98">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E98">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I98">
-        <v>453</v>
-      </c>
-      <c r="J98">
-        <v>38</v>
-      </c>
-      <c r="K98" t="s">
-        <v>61</v>
-      </c>
-      <c r="L98" t="s">
-        <v>75</v>
-      </c>
-      <c r="M98">
-        <v>10</v>
+        <v>223.9999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3860,40 +3881,40 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C99">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I99">
-        <v>885</v>
+        <v>429</v>
       </c>
       <c r="J99">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="L99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M99">
-        <v>585</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3901,40 +3922,28 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C100">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I100">
-        <v>445</v>
-      </c>
-      <c r="J100">
-        <v>31</v>
-      </c>
-      <c r="K100" t="s">
-        <v>61</v>
-      </c>
-      <c r="L100" t="s">
-        <v>75</v>
-      </c>
-      <c r="M100">
-        <v>434</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3942,28 +3951,28 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I101">
-        <v>45</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3971,40 +3980,40 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C102">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G102" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I102">
-        <v>3606.999999999999</v>
+        <v>360</v>
       </c>
       <c r="J102">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K102" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M102">
-        <v>486.9999999999998</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4012,10 +4021,10 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C103">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D103" t="s">
         <v>60</v>
@@ -4024,28 +4033,28 @@
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I103">
-        <v>1306</v>
+        <v>932</v>
       </c>
       <c r="J103">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M103">
-        <v>85</v>
+        <v>759</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4053,28 +4062,40 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C104">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I104">
-        <v>753.0000000000001</v>
+        <v>430</v>
+      </c>
+      <c r="J104">
+        <v>31</v>
+      </c>
+      <c r="K104" t="s">
+        <v>60</v>
+      </c>
+      <c r="L104" t="s">
+        <v>74</v>
+      </c>
+      <c r="M104">
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4082,28 +4103,28 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C105">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I105">
-        <v>1566</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4111,28 +4132,40 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C106">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G106" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H106" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I106">
-        <v>1679</v>
+        <v>3808.999999999999</v>
+      </c>
+      <c r="J106">
+        <v>30</v>
+      </c>
+      <c r="K106" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" t="s">
+        <v>74</v>
+      </c>
+      <c r="M106">
+        <v>486.9999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4140,28 +4173,40 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C107">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I107">
-        <v>443.9999999999998</v>
+        <v>1406</v>
+      </c>
+      <c r="J107">
+        <v>20</v>
+      </c>
+      <c r="K107" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" t="s">
+        <v>74</v>
+      </c>
+      <c r="M107">
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4169,40 +4214,28 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C108">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G108" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I108">
-        <v>1060</v>
-      </c>
-      <c r="J108">
-        <v>14</v>
-      </c>
-      <c r="K108" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" t="s">
-        <v>75</v>
-      </c>
-      <c r="M108">
-        <v>251</v>
+        <v>853.0000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4210,40 +4243,28 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C109">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E109">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I109">
-        <v>1421</v>
-      </c>
-      <c r="J109">
-        <v>20</v>
-      </c>
-      <c r="K109" t="s">
-        <v>29</v>
-      </c>
-      <c r="L109" t="s">
-        <v>75</v>
-      </c>
-      <c r="M109">
-        <v>20</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4251,28 +4272,28 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G110" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I110">
-        <v>975</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4280,28 +4301,28 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C111">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I111">
-        <v>989</v>
+        <v>463.9999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4309,40 +4330,40 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C112">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I112">
-        <v>2513</v>
+        <v>1089</v>
       </c>
       <c r="J112">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K112" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="L112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M112">
-        <v>377</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4350,40 +4371,40 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C113">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G113" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I113">
-        <v>1164</v>
+        <v>1454</v>
       </c>
       <c r="J113">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K113" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M113">
-        <v>741</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4391,40 +4412,28 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C114">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I114">
-        <v>1436</v>
-      </c>
-      <c r="J114">
-        <v>23</v>
-      </c>
-      <c r="K114" t="s">
-        <v>37</v>
-      </c>
-      <c r="L114" t="s">
-        <v>75</v>
-      </c>
-      <c r="M114">
-        <v>482</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4432,28 +4441,28 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I115">
-        <v>548</v>
+        <v>878</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4461,40 +4470,40 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C116">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E116">
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I116">
-        <v>3452.999999999999</v>
+        <v>2420</v>
       </c>
       <c r="J116">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K116" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="L116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M116">
-        <v>564.9999999999998</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4502,40 +4511,40 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C117">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E117">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G117" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I117">
-        <v>1859</v>
+        <v>1211</v>
       </c>
       <c r="J117">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K117" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M117">
-        <v>562</v>
+        <v>988</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4543,28 +4552,40 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C118">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G118" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I118">
-        <v>549</v>
+        <v>1521</v>
+      </c>
+      <c r="J118">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" t="s">
+        <v>74</v>
+      </c>
+      <c r="M118">
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4572,40 +4593,28 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C119">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E119">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G119" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H119" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I119">
-        <v>2167</v>
-      </c>
-      <c r="J119">
-        <v>10</v>
-      </c>
-      <c r="K119" t="s">
-        <v>64</v>
-      </c>
-      <c r="L119" t="s">
-        <v>75</v>
-      </c>
-      <c r="M119">
-        <v>264.9999999999999</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4613,28 +4622,40 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C120">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H120" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I120">
-        <v>424</v>
+        <v>3555</v>
+      </c>
+      <c r="J120">
+        <v>19</v>
+      </c>
+      <c r="K120" t="s">
+        <v>51</v>
+      </c>
+      <c r="L120" t="s">
+        <v>74</v>
+      </c>
+      <c r="M120">
+        <v>564.9999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4642,28 +4663,40 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C121">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E121">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I121">
-        <v>449</v>
+        <v>1959</v>
+      </c>
+      <c r="J121">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" t="s">
+        <v>74</v>
+      </c>
+      <c r="M121">
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4671,28 +4704,28 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G122" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I122">
-        <v>369</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4700,28 +4733,40 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C123">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E123">
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G123" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I123">
-        <v>1034</v>
+        <v>2167</v>
+      </c>
+      <c r="J123">
+        <v>10</v>
+      </c>
+      <c r="K123" t="s">
+        <v>73</v>
+      </c>
+      <c r="L123" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123">
+        <v>264.9999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4729,28 +4774,28 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I124">
-        <v>416.9999999999999</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4758,40 +4803,28 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G125" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H125" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I125">
-        <v>835</v>
-      </c>
-      <c r="J125">
-        <v>11</v>
-      </c>
-      <c r="K125" t="s">
-        <v>28</v>
-      </c>
-      <c r="L125" t="s">
-        <v>75</v>
-      </c>
-      <c r="M125">
-        <v>169</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4799,40 +4832,28 @@
         <v>14</v>
       </c>
       <c r="B126">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C126">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E126">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G126" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H126" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I126">
-        <v>1222</v>
-      </c>
-      <c r="J126">
-        <v>13</v>
-      </c>
-      <c r="K126" t="s">
-        <v>65</v>
-      </c>
-      <c r="L126" t="s">
-        <v>75</v>
-      </c>
-      <c r="M126">
-        <v>42</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4840,28 +4861,28 @@
         <v>14</v>
       </c>
       <c r="B127">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C127">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E127">
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G127" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H127" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I127">
-        <v>1042</v>
+        <v>436.9999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4869,40 +4890,40 @@
         <v>14</v>
       </c>
       <c r="B128">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C128">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D128" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E128">
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H128" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I128">
-        <v>1255</v>
+        <v>864</v>
       </c>
       <c r="J128">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K128" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M128">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4910,40 +4931,40 @@
         <v>14</v>
       </c>
       <c r="B129">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C129">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E129">
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G129" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I129">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="J129">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K129" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" t="s">
         <v>74</v>
       </c>
-      <c r="L129" t="s">
-        <v>75</v>
-      </c>
       <c r="M129">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4951,40 +4972,40 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C130">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G130" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I130">
-        <v>55</v>
+        <v>1042</v>
       </c>
       <c r="J130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K130" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M130">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4992,40 +5013,40 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C131">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E131">
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G131" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H131" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I131">
-        <v>903</v>
+        <v>1203</v>
       </c>
       <c r="J131">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K131" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M131">
-        <v>302</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5033,28 +5054,40 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C132">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="D132" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E132">
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G132" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I132">
-        <v>2252</v>
+        <v>1036</v>
+      </c>
+      <c r="J132">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
+        <v>74</v>
+      </c>
+      <c r="M132">
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5062,28 +5095,40 @@
         <v>14</v>
       </c>
       <c r="B133">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C133">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D133" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E133">
         <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G133" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I133">
-        <v>170</v>
+        <v>26</v>
+      </c>
+      <c r="J133">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
+        <v>52</v>
+      </c>
+      <c r="L133" t="s">
+        <v>74</v>
+      </c>
+      <c r="M133">
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5091,40 +5136,40 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C134">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D134" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E134">
         <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G134" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H134" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I134">
-        <v>1319</v>
+        <v>903</v>
       </c>
       <c r="J134">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M134">
-        <v>612</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5132,28 +5177,28 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C135">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E135">
         <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G135" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I135">
-        <v>838</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5161,28 +5206,28 @@
         <v>14</v>
       </c>
       <c r="B136">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C136">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G136" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H136" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I136">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5190,28 +5235,28 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C137">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E137">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G137" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H137" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I137">
-        <v>406.9999999999999</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5219,28 +5264,28 @@
         <v>14</v>
       </c>
       <c r="B138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G138" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I138">
-        <v>539</v>
+        <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5248,28 +5293,28 @@
         <v>14</v>
       </c>
       <c r="B139">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C139">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E139">
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G139" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H139" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I139">
-        <v>780</v>
+        <v>426.9999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5277,28 +5322,28 @@
         <v>14</v>
       </c>
       <c r="B140">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C140">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E140">
         <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G140" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H140" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I140">
-        <v>335</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5306,28 +5351,28 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C141">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D141" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E141">
         <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H141" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I141">
-        <v>1013</v>
+        <v>813</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5335,28 +5380,28 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C142">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D142" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I142">
-        <v>688</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5364,28 +5409,28 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C143">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E143">
         <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H143" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I143">
-        <v>500</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5393,28 +5438,28 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C144">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E144">
         <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G144" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H144" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I144">
-        <v>195</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5425,25 +5470,25 @@
         <v>17</v>
       </c>
       <c r="C145">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E145">
         <v>60</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G145" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H145" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I145">
-        <v>1371</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5451,28 +5496,28 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C146">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D146" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E146">
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G146" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I146">
-        <v>323</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5480,28 +5525,28 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G147" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H147" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I147">
-        <v>634</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5509,28 +5554,28 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C148">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E148">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F148" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G148" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H148" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I148">
-        <v>256.9999999999999</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5538,28 +5583,28 @@
         <v>14</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F149" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G149" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H149" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I149">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5567,28 +5612,28 @@
         <v>14</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D150" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G150" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I150">
-        <v>383</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5596,27 +5641,114 @@
         <v>14</v>
       </c>
       <c r="B151">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>1.2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151">
+        <v>70</v>
+      </c>
+      <c r="F151" t="s">
+        <v>70</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151">
+        <v>256.9999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>1.3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152">
+        <v>70</v>
+      </c>
+      <c r="F152" t="s">
+        <v>70</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>1.4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>70</v>
+      </c>
+      <c r="F153" t="s">
+        <v>70</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
         <v>12</v>
       </c>
-      <c r="C151">
+      <c r="C154">
         <v>1.7</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D154" t="s">
         <v>38</v>
       </c>
-      <c r="E151">
-        <v>70</v>
-      </c>
-      <c r="F151" t="s">
-        <v>68</v>
-      </c>
-      <c r="G151" t="s">
-        <v>69</v>
-      </c>
-      <c r="H151" t="s">
-        <v>70</v>
-      </c>
-      <c r="I151">
+      <c r="E154">
+        <v>70</v>
+      </c>
+      <c r="F154" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
         <v>451</v>
       </c>
     </row>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="74">
   <si>
     <t>Sex</t>
   </si>
@@ -115,130 +115,127 @@
     <t>80%</t>
   </si>
   <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
     <t>70%</t>
   </si>
   <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
     <t>53%</t>
   </si>
   <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>78%</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Fav</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
     <t>77%</t>
   </si>
   <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
+    <t>2022-06-16</t>
   </si>
 </sst>
 </file>
@@ -596,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,28 +657,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>1035.999999999999</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>363.9999999999999</v>
+        <v>319.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -701,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>243</v>
@@ -730,13 +727,13 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4">
         <v>357.0000000000005</v>
@@ -745,10 +742,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4">
         <v>47.00000000000014</v>
@@ -771,28 +768,28 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>1503</v>
       </c>
       <c r="J5">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5">
-        <v>413.9999999999999</v>
+        <v>369.9999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -812,13 +809,13 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>803</v>
@@ -841,28 +838,28 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7">
-        <v>526</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -882,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>450</v>
@@ -911,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>150</v>
@@ -940,13 +937,13 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>478.0000000000003</v>
@@ -958,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10">
         <v>106.0000000000001</v>
@@ -981,28 +978,28 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>1152</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11">
-        <v>355.9999999999999</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1022,28 +1019,28 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>1072</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1063,13 +1060,13 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>1246</v>
@@ -1092,13 +1089,13 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>399</v>
@@ -1110,7 +1107,7 @@
         <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14">
         <v>357</v>
@@ -1133,13 +1130,13 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>824</v>
@@ -1162,13 +1159,13 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>109</v>
@@ -1191,13 +1188,13 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>292.0000000000002</v>
@@ -1209,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17">
         <v>72.00000000000007</v>
@@ -1232,28 +1229,28 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>733</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1273,13 +1270,13 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>447</v>
@@ -1302,13 +1299,13 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <v>461</v>
@@ -1331,13 +1328,13 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I21">
         <v>222</v>
@@ -1360,13 +1357,13 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>608</v>
@@ -1389,13 +1386,13 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23">
         <v>118</v>
@@ -1418,13 +1415,13 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>299</v>
@@ -1447,13 +1444,13 @@
         <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25">
         <v>37.00000000000001</v>
@@ -1476,13 +1473,13 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>70.00000000000006</v>
@@ -1505,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>76.9999999999999</v>
@@ -1534,13 +1531,13 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>13</v>
@@ -1549,10 +1546,10 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M28">
         <v>110</v>
@@ -1575,13 +1572,13 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>583</v>
@@ -1592,40 +1589,40 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>1.7</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>1163</v>
+        <v>1063</v>
       </c>
       <c r="J30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>186</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1633,28 +1630,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I31">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1668,19 +1665,19 @@
         <v>2.2</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I32">
         <v>706</v>
@@ -1689,10 +1686,10 @@
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M32">
         <v>772</v>
@@ -1703,28 +1700,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>2.3</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I33">
-        <v>150</v>
+        <v>49.99999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1738,19 +1735,19 @@
         <v>2.5</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I34">
         <v>990</v>
@@ -1773,13 +1770,13 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I35">
         <v>163.9999999999999</v>
@@ -1802,13 +1799,13 @@
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36">
         <v>684</v>
@@ -1820,7 +1817,7 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36">
         <v>260</v>
@@ -1843,13 +1840,13 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I37">
         <v>1019</v>
@@ -1866,19 +1863,19 @@
         <v>1.6</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I38">
         <v>1298</v>
@@ -1887,10 +1884,10 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M38">
         <v>162</v>
@@ -1901,40 +1898,40 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>1.7</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I39">
-        <v>834</v>
+        <v>734</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M39">
-        <v>260</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1948,19 +1945,19 @@
         <v>1.9</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I40">
         <v>130</v>
@@ -1971,28 +1968,28 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I41">
-        <v>203</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2006,19 +2003,19 @@
         <v>2.2</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I42">
         <v>783</v>
@@ -2027,10 +2024,10 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M42">
         <v>515</v>
@@ -2047,19 +2044,19 @@
         <v>2.4</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I43">
         <v>317</v>
@@ -2082,13 +2079,13 @@
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I44">
         <v>147.9999999999999</v>
@@ -2105,19 +2102,19 @@
         <v>1.3</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>545</v>
@@ -2129,7 +2126,7 @@
         <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M45">
         <v>209</v>
@@ -2152,13 +2149,13 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I46">
         <v>620</v>
@@ -2181,13 +2178,13 @@
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I47">
         <v>243</v>
@@ -2204,19 +2201,19 @@
         <v>1.6</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I48">
         <v>1227</v>
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>1.7</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I49">
-        <v>990</v>
+        <v>890</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2256,28 +2253,28 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I50">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2297,13 +2294,13 @@
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I51">
         <v>965</v>
@@ -2320,19 +2317,19 @@
         <v>2.3</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52">
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I52">
         <v>395</v>
@@ -2355,13 +2352,13 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I53">
         <v>343</v>
@@ -2384,13 +2381,13 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I54">
         <v>480</v>
@@ -2413,13 +2410,13 @@
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I55">
         <v>564</v>
@@ -2430,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56">
         <v>1.8</v>
@@ -2442,16 +2439,28 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>444</v>
+        <v>523</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2459,28 +2468,28 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C57">
         <v>1.5</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I57">
-        <v>510</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2488,28 +2497,40 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58">
         <v>1.8</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E58">
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I58">
-        <v>130</v>
+        <v>209</v>
+      </c>
+      <c r="J58">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2523,19 +2544,19 @@
         <v>1.9</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I59">
         <v>105</v>
@@ -2547,7 +2568,7 @@
         <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M59">
         <v>115</v>
@@ -2564,19 +2585,19 @@
         <v>1.1</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I60">
         <v>250.0000000000005</v>
@@ -2587,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C61">
         <v>1.2</v>
@@ -2599,16 +2620,16 @@
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I61">
-        <v>619.9999999999993</v>
+        <v>652.9999999999992</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2616,40 +2637,40 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C62">
         <v>1.3</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I62">
-        <v>2426</v>
+        <v>2326</v>
       </c>
       <c r="J62">
+        <v>61</v>
+      </c>
+      <c r="K62" t="s">
         <v>62</v>
       </c>
-      <c r="K62" t="s">
-        <v>63</v>
-      </c>
       <c r="L62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M62">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2657,40 +2678,40 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C63">
         <v>1.4</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I63">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="J63">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K63" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M63">
-        <v>301</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2698,7 +2719,7 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C64">
         <v>1.5</v>
@@ -2710,16 +2731,28 @@
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I64">
-        <v>1986</v>
+        <v>2035</v>
+      </c>
+      <c r="J64">
+        <v>63</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64">
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2727,28 +2760,28 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65">
         <v>1.7</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I65">
-        <v>1063</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2756,28 +2789,28 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>1.8</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E66">
         <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I66">
-        <v>1055</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2797,13 +2830,13 @@
         <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I67">
         <v>168</v>
@@ -2826,13 +2859,13 @@
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I68">
         <v>475.0000000000004</v>
@@ -2843,7 +2876,7 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C69">
         <v>1.2</v>
@@ -2855,28 +2888,28 @@
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I69">
-        <v>1639</v>
+        <v>1672</v>
       </c>
       <c r="J69">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s">
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M69">
-        <v>325.9999999999999</v>
+        <v>339.9999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2884,7 +2917,7 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C70">
         <v>1.3</v>
@@ -2896,28 +2929,28 @@
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I70">
-        <v>2001</v>
+        <v>1901</v>
       </c>
       <c r="J70">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K70" t="s">
         <v>15</v>
       </c>
       <c r="L70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M70">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2937,28 +2970,28 @@
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I71">
         <v>1705</v>
       </c>
       <c r="J71">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M71">
-        <v>226</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2978,28 +3011,28 @@
         <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>1504</v>
       </c>
       <c r="J72">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M72">
-        <v>267</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3007,28 +3040,28 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73">
         <v>1.7</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E73">
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>167</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3048,13 +3081,13 @@
         <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I74">
         <v>985</v>
@@ -3077,13 +3110,13 @@
         <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I75">
         <v>437.0000000000002</v>
@@ -3094,40 +3127,40 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>1.2</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76">
         <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I76">
-        <v>1251</v>
+        <v>1284</v>
       </c>
       <c r="J76">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M76">
-        <v>243.9999999999999</v>
+        <v>257.9999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3147,28 +3180,28 @@
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I77">
         <v>1749</v>
       </c>
       <c r="J77">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="L77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77">
-        <v>330</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3188,13 +3221,13 @@
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I78">
         <v>1089</v>
@@ -3203,10 +3236,10 @@
         <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M78">
         <v>233</v>
@@ -3229,13 +3262,13 @@
         <v>60</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I79">
         <v>1397</v>
@@ -3247,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="L79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -3258,28 +3291,28 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>1.7</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E80">
         <v>60</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I80">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3293,19 +3326,19 @@
         <v>1.8</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E81">
         <v>60</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I81">
         <v>324</v>
@@ -3328,13 +3361,13 @@
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I82">
         <v>317.0000000000001</v>
@@ -3346,7 +3379,7 @@
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M82">
         <v>63.00000000000001</v>
@@ -3357,7 +3390,7 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83">
         <v>1.2</v>
@@ -3369,28 +3402,28 @@
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I83">
-        <v>271.9999999999999</v>
+        <v>285.9999999999999</v>
       </c>
       <c r="J83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M83">
-        <v>34.99999999999999</v>
+        <v>48.99999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3410,28 +3443,28 @@
         <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I84">
         <v>542</v>
       </c>
       <c r="J84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M84">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3451,13 +3484,13 @@
         <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I85">
         <v>647</v>
@@ -3480,13 +3513,13 @@
         <v>70</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I86">
         <v>712</v>
@@ -3509,13 +3542,13 @@
         <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I87">
         <v>177.0000000000001</v>
@@ -3538,13 +3571,13 @@
         <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I88">
         <v>157</v>
@@ -3567,13 +3600,13 @@
         <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I89">
         <v>201</v>
@@ -3596,13 +3629,13 @@
         <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I90">
         <v>252</v>
@@ -3619,19 +3652,19 @@
         <v>1.2</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E91">
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I91">
         <v>41.99999999999989</v>
@@ -3654,28 +3687,28 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I92">
         <v>42</v>
       </c>
       <c r="J92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K92" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M92">
-        <v>437</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3689,34 +3722,34 @@
         <v>2.1</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I93">
         <v>3214</v>
       </c>
       <c r="J93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M93">
-        <v>292.9999999999998</v>
+        <v>392.9999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3724,28 +3757,28 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94">
         <v>2.3</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E94">
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I94">
-        <v>328.0000000000001</v>
+        <v>228.0000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3759,19 +3792,19 @@
         <v>2.5</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E95">
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I95">
         <v>31.00000000000014</v>
@@ -3782,40 +3815,28 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <v>2.6</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E96">
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I96">
-        <v>1976</v>
-      </c>
-      <c r="J96">
-        <v>22</v>
-      </c>
-      <c r="K96" t="s">
-        <v>56</v>
-      </c>
-      <c r="L96" t="s">
-        <v>74</v>
-      </c>
-      <c r="M96">
-        <v>91.99999999999991</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3829,19 +3850,19 @@
         <v>3.2</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E97">
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I97">
         <v>879</v>
@@ -3864,13 +3885,13 @@
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I98">
         <v>223.9999999999998</v>
@@ -3881,40 +3902,40 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>1.3</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I99">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="J99">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K99" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="L99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M99">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3934,13 +3955,13 @@
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G100" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I100">
         <v>98</v>
@@ -3951,28 +3972,28 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C101">
         <v>1.6</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I101">
-        <v>1008</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3980,40 +4001,40 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102">
         <v>1.7</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H102" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I102">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="J102">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K102" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M102">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4027,34 +4048,34 @@
         <v>1.8</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I103">
         <v>932</v>
       </c>
       <c r="J103">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K103" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M103">
-        <v>759</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4062,40 +4083,40 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C104">
         <v>1.9</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I104">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="J104">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K104" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M104">
-        <v>435</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4109,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I105">
         <v>41</v>
@@ -4144,28 +4165,28 @@
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I106">
         <v>3808.999999999999</v>
       </c>
       <c r="J106">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K106" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M106">
-        <v>486.9999999999999</v>
+        <v>586.9999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4173,37 +4194,37 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107">
         <v>2.3</v>
       </c>
       <c r="D107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E107">
         <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H107" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I107">
-        <v>1406</v>
+        <v>1306</v>
       </c>
       <c r="J107">
         <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M107">
         <v>39</v>
@@ -4220,19 +4241,19 @@
         <v>2.5</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E108">
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I108">
         <v>853.0000000000001</v>
@@ -4243,28 +4264,28 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109">
         <v>2.6</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E109">
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I109">
-        <v>1566</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4278,19 +4299,19 @@
         <v>3.2</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E110">
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I110">
         <v>1579</v>
@@ -4313,13 +4334,13 @@
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I111">
         <v>463.9999999999998</v>
@@ -4330,7 +4351,7 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C112">
         <v>1.3</v>
@@ -4342,28 +4363,28 @@
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H112" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I112">
-        <v>1089</v>
+        <v>1116</v>
       </c>
       <c r="J112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M112">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4377,34 +4398,34 @@
         <v>1.4</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I113">
         <v>1454</v>
       </c>
       <c r="J113">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K113" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M113">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4412,28 +4433,28 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C114">
         <v>1.5</v>
       </c>
       <c r="D114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I114">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4441,7 +4462,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>1.6</v>
@@ -4453,16 +4474,16 @@
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I115">
-        <v>878</v>
+        <v>778</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4470,40 +4491,40 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>1.7</v>
       </c>
       <c r="D116" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E116">
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I116">
-        <v>2420</v>
+        <v>2485</v>
       </c>
       <c r="J116">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K116" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M116">
-        <v>307</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4517,34 +4538,34 @@
         <v>1.8</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E117">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I117">
         <v>1211</v>
       </c>
       <c r="J117">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K117" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="L117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M117">
-        <v>988</v>
+        <v>917</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4552,40 +4573,40 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C118">
         <v>1.9</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I118">
-        <v>1521</v>
+        <v>1600</v>
       </c>
       <c r="J118">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M118">
-        <v>483</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4599,19 +4620,19 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E119">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I119">
         <v>544</v>
@@ -4628,19 +4649,19 @@
         <v>2.1</v>
       </c>
       <c r="D120" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I120">
         <v>3555</v>
@@ -4649,10 +4670,10 @@
         <v>19</v>
       </c>
       <c r="K120" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M120">
         <v>564.9999999999998</v>
@@ -4663,7 +4684,7 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C121">
         <v>2.3</v>
@@ -4675,28 +4696,28 @@
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I121">
-        <v>1959</v>
+        <v>1859</v>
       </c>
       <c r="J121">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K121" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M121">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4710,19 +4731,19 @@
         <v>2.5</v>
       </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E122">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G122" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I122">
         <v>649</v>
@@ -4733,7 +4754,7 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C123">
         <v>2.6</v>
@@ -4745,28 +4766,28 @@
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I123">
-        <v>2167</v>
+        <v>2067</v>
       </c>
       <c r="J123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K123" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="L123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M123">
-        <v>264.9999999999999</v>
+        <v>164.9999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4780,19 +4801,19 @@
         <v>2.8</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E124">
         <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I124">
         <v>349</v>
@@ -4809,19 +4830,19 @@
         <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E125">
         <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I125">
         <v>269</v>
@@ -4838,19 +4859,19 @@
         <v>3.2</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E126">
         <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I126">
         <v>1034</v>
@@ -4873,13 +4894,13 @@
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I127">
         <v>436.9999999999999</v>
@@ -4902,13 +4923,13 @@
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I128">
         <v>864</v>
@@ -4920,7 +4941,7 @@
         <v>15</v>
       </c>
       <c r="L128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M128">
         <v>145</v>
@@ -4943,13 +4964,13 @@
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H129" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I129">
         <v>1255</v>
@@ -4958,10 +4979,10 @@
         <v>12</v>
       </c>
       <c r="K129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M129">
         <v>139</v>
@@ -4972,40 +4993,28 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C130">
         <v>1.5</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I130">
-        <v>1042</v>
-      </c>
-      <c r="J130">
-        <v>10</v>
-      </c>
-      <c r="K130" t="s">
-        <v>33</v>
-      </c>
-      <c r="L130" t="s">
-        <v>74</v>
-      </c>
-      <c r="M130">
-        <v>22</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5013,40 +5022,28 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C131">
         <v>1.6</v>
       </c>
       <c r="D131" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E131">
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G131" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I131">
-        <v>1203</v>
-      </c>
-      <c r="J131">
-        <v>12</v>
-      </c>
-      <c r="K131" t="s">
-        <v>52</v>
-      </c>
-      <c r="L131" t="s">
-        <v>74</v>
-      </c>
-      <c r="M131">
-        <v>51</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5054,7 +5051,7 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C132">
         <v>1.7</v>
@@ -5066,28 +5063,28 @@
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H132" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>1036</v>
+        <v>1101</v>
       </c>
       <c r="J132">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M132">
-        <v>217</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5107,28 +5104,28 @@
         <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H133" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I133">
         <v>26</v>
       </c>
       <c r="J133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M133">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5136,40 +5133,40 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C134">
         <v>1.9</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E134">
         <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G134" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H134" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I134">
-        <v>903</v>
+        <v>1082</v>
       </c>
       <c r="J134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M134">
-        <v>302</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5189,13 +5186,13 @@
         <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G135" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H135" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I135">
         <v>2252</v>
@@ -5212,19 +5209,19 @@
         <v>2.2</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136">
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H136" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I136">
         <v>170</v>
@@ -5235,28 +5232,40 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C137">
         <v>2.3</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E137">
         <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G137" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H137" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I137">
-        <v>1419</v>
+        <v>1319</v>
+      </c>
+      <c r="J137">
+        <v>10</v>
+      </c>
+      <c r="K137" t="s">
+        <v>28</v>
+      </c>
+      <c r="L137" t="s">
+        <v>73</v>
+      </c>
+      <c r="M137">
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5264,28 +5273,28 @@
         <v>14</v>
       </c>
       <c r="B138">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C138">
         <v>2.6</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E138">
         <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H138" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I138">
-        <v>838</v>
+        <v>738</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5305,13 +5314,13 @@
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G139" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H139" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I139">
         <v>426.9999999999999</v>
@@ -5334,13 +5343,13 @@
         <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H140" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I140">
         <v>568</v>
@@ -5363,13 +5372,13 @@
         <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I141">
         <v>813</v>
@@ -5380,28 +5389,28 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C142">
         <v>1.5</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E142">
         <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H142" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I142">
-        <v>335</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5421,13 +5430,13 @@
         <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I143">
         <v>1013</v>
@@ -5438,28 +5447,28 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C144">
         <v>1.7</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E144">
         <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H144" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I144">
-        <v>688</v>
+        <v>753</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5473,19 +5482,19 @@
         <v>1.8</v>
       </c>
       <c r="D145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E145">
         <v>60</v>
       </c>
       <c r="F145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G145" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H145" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I145">
         <v>571</v>
@@ -5496,28 +5505,28 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>1.9</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E146">
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G146" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H146" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I146">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5537,13 +5546,13 @@
         <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G147" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H147" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I147">
         <v>180</v>
@@ -5566,13 +5575,13 @@
         <v>60</v>
       </c>
       <c r="F148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G148" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H148" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I148">
         <v>1371</v>
@@ -5595,13 +5604,13 @@
         <v>60</v>
       </c>
       <c r="F149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G149" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H149" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I149">
         <v>323</v>
@@ -5612,28 +5621,28 @@
         <v>14</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C150">
         <v>2.3</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E150">
         <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G150" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H150" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I150">
-        <v>734</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5641,28 +5650,28 @@
         <v>14</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C151">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E151">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F151" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H151" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I151">
-        <v>256.9999999999999</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5670,10 +5679,10 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D152" t="s">
         <v>22</v>
@@ -5682,16 +5691,16 @@
         <v>70</v>
       </c>
       <c r="F152" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H152" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I152">
-        <v>368</v>
+        <v>256.9999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5699,28 +5708,28 @@
         <v>14</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E153">
         <v>70</v>
       </c>
       <c r="F153" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H153" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I153">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5728,28 +5737,57 @@
         <v>14</v>
       </c>
       <c r="B154">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C154">
+        <v>1.4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154">
+        <v>70</v>
+      </c>
+      <c r="F154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G154" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155">
         <v>1.7</v>
       </c>
-      <c r="D154" t="s">
-        <v>38</v>
-      </c>
-      <c r="E154">
-        <v>70</v>
-      </c>
-      <c r="F154" t="s">
-        <v>70</v>
-      </c>
-      <c r="G154" t="s">
-        <v>71</v>
-      </c>
-      <c r="H154" t="s">
-        <v>72</v>
-      </c>
-      <c r="I154">
-        <v>451</v>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>70</v>
+      </c>
+      <c r="F155" t="s">
+        <v>68</v>
+      </c>
+      <c r="G155" t="s">
+        <v>69</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="73">
   <si>
     <t>Sex</t>
   </si>
@@ -64,7 +64,7 @@
     <t>90%</t>
   </si>
   <si>
-    <t>59%</t>
+    <t>55%</t>
   </si>
   <si>
     <t>97%</t>
@@ -76,166 +76,163 @@
     <t>85%</t>
   </si>
   <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
     <t>69%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>91%</t>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>43%</t>
   </si>
   <si>
     <t>75%</t>
   </si>
   <si>
-    <t>93%</t>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Fav</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
     <t>83%</t>
   </si>
   <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
     <t>70%</t>
   </si>
   <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
+    <t>2022-06-21</t>
   </si>
 </sst>
 </file>
@@ -593,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -657,28 +654,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2">
-        <v>1035.999999999999</v>
+        <v>1015.999999999999</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2">
-        <v>319.9999999999999</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -698,16 +695,16 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3">
-        <v>243</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -727,28 +724,28 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>357.0000000000005</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4">
-        <v>47.00000000000014</v>
+        <v>18.00000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -756,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -768,28 +765,28 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5">
-        <v>1503</v>
+        <v>1568</v>
       </c>
       <c r="J5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5">
-        <v>369.9999999999999</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -797,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>1.3</v>
@@ -809,16 +806,16 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6">
-        <v>803</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -826,10 +823,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -838,28 +835,16 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7">
-        <v>479</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -867,10 +852,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -879,16 +864,16 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -896,28 +881,40 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9">
-        <v>150</v>
+        <v>478.0000000000003</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>96.0000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -925,40 +922,40 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I10">
-        <v>478.0000000000003</v>
+        <v>1184</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10">
-        <v>106.0000000000001</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -966,40 +963,40 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11">
-        <v>1152</v>
+        <v>1202</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11">
-        <v>325</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1007,40 +1004,28 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12">
-        <v>1072</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12">
-        <v>174</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1048,28 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13">
-        <v>1246</v>
+        <v>395</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13">
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1077,40 +1074,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14">
-        <v>399</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14">
-        <v>357</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1118,28 +1103,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15">
-        <v>824</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1147,28 +1132,40 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16">
-        <v>109</v>
+        <v>292.0000000000002</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16">
+        <v>72.00000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1176,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1188,28 +1185,28 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17">
-        <v>292.0000000000002</v>
+        <v>733</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>72.00000000000007</v>
+        <v>142.0000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1217,40 +1214,28 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I18">
-        <v>733</v>
-      </c>
-      <c r="J18">
-        <v>12</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18">
-        <v>175</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1258,28 +1243,28 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I19">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1287,28 +1272,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I20">
-        <v>461</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1316,10 +1301,10 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1328,16 +1313,16 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21">
-        <v>222</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1345,28 +1330,28 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22">
-        <v>608</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1374,10 +1359,10 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1386,16 +1371,16 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23">
-        <v>118</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1403,28 +1388,28 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24">
-        <v>299</v>
+        <v>37.00000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1441,19 +1426,19 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25">
-        <v>37.00000000000001</v>
+        <v>70.00000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1461,28 +1446,28 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I26">
-        <v>70.00000000000006</v>
+        <v>125.9999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1490,28 +1475,28 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I27">
-        <v>76.9999999999999</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1519,40 +1504,40 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C28">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>1285</v>
       </c>
       <c r="J28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1560,28 +1545,28 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I29">
-        <v>583</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1589,40 +1574,40 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <v>725.0000000000001</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30">
-        <v>1063</v>
-      </c>
-      <c r="J30">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>43</v>
-      </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>749.0000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1630,28 +1615,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I31">
-        <v>276</v>
+        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1659,40 +1644,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I32">
-        <v>706</v>
-      </c>
-      <c r="J32">
-        <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M32">
-        <v>772</v>
+        <v>212.9999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1700,28 +1673,40 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I33">
-        <v>49.99999999999997</v>
+        <v>584</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1729,28 +1714,28 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I34">
-        <v>990</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1758,28 +1743,40 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35">
-        <v>163.9999999999999</v>
+        <v>1252</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1787,40 +1784,28 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I36">
-        <v>684</v>
-      </c>
-      <c r="J36">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36">
-        <v>260</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1828,28 +1813,28 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I37">
-        <v>1019</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1857,40 +1842,28 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I38">
-        <v>1298</v>
-      </c>
-      <c r="J38">
-        <v>14</v>
-      </c>
-      <c r="K38" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38">
-        <v>162</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1898,40 +1871,28 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I39">
-        <v>734</v>
-      </c>
-      <c r="J39">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1939,28 +1900,28 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I40">
-        <v>130</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1968,28 +1929,28 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I41">
-        <v>302</v>
+        <v>196.9999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1997,40 +1958,40 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I42">
-        <v>783</v>
+        <v>545</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M42">
-        <v>515</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2038,28 +1999,28 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43">
         <v>40</v>
       </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I43">
-        <v>317</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2067,28 +2028,28 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I44">
-        <v>147.9999999999999</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2096,40 +2057,28 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I45">
-        <v>545</v>
-      </c>
-      <c r="J45">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45">
-        <v>209</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2137,28 +2086,28 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I46">
-        <v>620</v>
+        <v>890</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2166,28 +2115,28 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I47">
-        <v>243</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2195,28 +2144,28 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I48">
-        <v>1227</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2224,28 +2173,28 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E49">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I49">
-        <v>890</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2256,25 +2205,25 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I50">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2282,28 +2231,28 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I51">
-        <v>965</v>
+        <v>181.9999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2311,28 +2260,28 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I52">
-        <v>395</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2340,10 +2289,10 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -2352,16 +2301,16 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I53">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2369,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>1.5</v>
@@ -2381,16 +2330,16 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I54">
-        <v>480</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2410,13 +2359,13 @@
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I55">
         <v>564</v>
@@ -2427,40 +2376,28 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C56">
         <v>1.8</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E56">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I56">
-        <v>523</v>
-      </c>
-      <c r="J56">
-        <v>24</v>
-      </c>
-      <c r="K56" t="s">
-        <v>39</v>
-      </c>
-      <c r="L56" t="s">
-        <v>73</v>
-      </c>
-      <c r="M56">
-        <v>52</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2468,28 +2405,28 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C57">
         <v>1.5</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E57">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I57">
-        <v>559</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2497,40 +2434,28 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="C58">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I58">
-        <v>209</v>
-      </c>
-      <c r="J58">
-        <v>21</v>
-      </c>
-      <c r="K58" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" t="s">
-        <v>73</v>
-      </c>
-      <c r="M58">
-        <v>8</v>
+        <v>264.0000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2538,40 +2463,28 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="C59">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59">
         <v>40</v>
       </c>
-      <c r="E59">
-        <v>30</v>
-      </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I59">
-        <v>105</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-      <c r="K59" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" t="s">
-        <v>73</v>
-      </c>
-      <c r="M59">
-        <v>115</v>
+        <v>737.9999999999992</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2579,28 +2492,40 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="C60">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60">
+        <v>2294</v>
+      </c>
+      <c r="J60">
+        <v>59</v>
+      </c>
+      <c r="K60" t="s">
         <v>70</v>
       </c>
-      <c r="I60">
-        <v>250.0000000000005</v>
+      <c r="L60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60">
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2608,28 +2533,40 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C61">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E61">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I61">
-        <v>652.9999999999992</v>
+        <v>146</v>
+      </c>
+      <c r="J61">
+        <v>62</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61">
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2637,40 +2574,28 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="C62">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E62">
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I62">
-        <v>2326</v>
-      </c>
-      <c r="J62">
-        <v>61</v>
-      </c>
-      <c r="K62" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62" t="s">
-        <v>73</v>
-      </c>
-      <c r="M62">
-        <v>288</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2678,40 +2603,40 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="C63">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I63">
-        <v>174</v>
+        <v>1003</v>
       </c>
       <c r="J63">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M63">
-        <v>468</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2719,40 +2644,28 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="C64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I64">
-        <v>2035</v>
-      </c>
-      <c r="J64">
-        <v>63</v>
-      </c>
-      <c r="K64" t="s">
-        <v>45</v>
-      </c>
-      <c r="L64" t="s">
-        <v>73</v>
-      </c>
-      <c r="M64">
-        <v>84</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2760,28 +2673,28 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C65">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E65">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I65">
-        <v>963</v>
+        <v>485.0000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2789,28 +2702,40 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="C66">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="D66" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I66">
-        <v>1134</v>
+        <v>1701</v>
+      </c>
+      <c r="J66">
+        <v>36</v>
+      </c>
+      <c r="K66" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" t="s">
+        <v>72</v>
+      </c>
+      <c r="M66">
+        <v>308.9999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2818,28 +2743,40 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C67">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I67">
-        <v>168</v>
+        <v>2136</v>
+      </c>
+      <c r="J67">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67">
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2847,28 +2784,40 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C68">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I68">
-        <v>475.0000000000004</v>
+        <v>1608</v>
+      </c>
+      <c r="J68">
+        <v>42</v>
+      </c>
+      <c r="K68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2876,40 +2825,40 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="C69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E69">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I69">
-        <v>1672</v>
+        <v>1707</v>
       </c>
       <c r="J69">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M69">
-        <v>339.9999999999999</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2917,40 +2866,40 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="C70">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E70">
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I70">
-        <v>1901</v>
+        <v>236</v>
       </c>
       <c r="J70">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M70">
-        <v>502</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2958,40 +2907,28 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="C71">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E71">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I71">
-        <v>1705</v>
-      </c>
-      <c r="J71">
-        <v>42</v>
-      </c>
-      <c r="K71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" t="s">
-        <v>73</v>
-      </c>
-      <c r="M71">
-        <v>393</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2999,40 +2936,40 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C72">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I72">
-        <v>1504</v>
+        <v>447.0000000000002</v>
       </c>
       <c r="J72">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="L72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M72">
-        <v>323</v>
+        <v>1.000000000000028</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3040,28 +2977,40 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C73">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I73">
-        <v>67</v>
+        <v>1296</v>
+      </c>
+      <c r="J73">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" t="s">
+        <v>72</v>
+      </c>
+      <c r="M73">
+        <v>174.9999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3069,28 +3018,40 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C74">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I74">
-        <v>985</v>
+        <v>1857</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74">
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3098,28 +3059,40 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C75">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E75">
         <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75">
+        <v>1054</v>
+      </c>
+      <c r="J75">
+        <v>15</v>
+      </c>
+      <c r="K75" t="s">
         <v>69</v>
       </c>
-      <c r="H75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I75">
-        <v>437.0000000000002</v>
+      <c r="L75" t="s">
+        <v>72</v>
+      </c>
+      <c r="M75">
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3127,40 +3100,40 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C76">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I76">
-        <v>1284</v>
+        <v>1470</v>
       </c>
       <c r="J76">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M76">
-        <v>257.9999999999999</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3168,40 +3141,28 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I77">
-        <v>1749</v>
-      </c>
-      <c r="J77">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L77" t="s">
-        <v>73</v>
-      </c>
-      <c r="M77">
-        <v>408</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3209,40 +3170,28 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I78">
-        <v>1089</v>
-      </c>
-      <c r="J78">
-        <v>14</v>
-      </c>
-      <c r="K78" t="s">
-        <v>42</v>
-      </c>
-      <c r="L78" t="s">
-        <v>73</v>
-      </c>
-      <c r="M78">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3250,40 +3199,40 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I79">
-        <v>1397</v>
+        <v>326.0000000000001</v>
       </c>
       <c r="J79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>79.00000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3291,28 +3240,40 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C80">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I80">
-        <v>102</v>
+        <v>297.9999999999999</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80">
+        <v>16.99999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3320,28 +3281,40 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C81">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E81">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I81">
-        <v>324</v>
+        <v>623</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" t="s">
+        <v>72</v>
+      </c>
+      <c r="M81">
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3349,40 +3322,28 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C82">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E82">
         <v>70</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I82">
-        <v>317.0000000000001</v>
-      </c>
-      <c r="J82">
-        <v>13</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" t="s">
-        <v>73</v>
-      </c>
-      <c r="M82">
-        <v>63.00000000000001</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3390,40 +3351,28 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I83">
-        <v>285.9999999999999</v>
-      </c>
-      <c r="J83">
-        <v>12</v>
-      </c>
-      <c r="K83" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" t="s">
-        <v>73</v>
-      </c>
-      <c r="M83">
-        <v>48.99999999999997</v>
+        <v>690</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3431,40 +3380,28 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E84">
         <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I84">
-        <v>542</v>
-      </c>
-      <c r="J84">
-        <v>11</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>73</v>
-      </c>
-      <c r="M84">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3472,28 +3409,40 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E85">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I85">
-        <v>647</v>
+        <v>195.0000000000001</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>72</v>
+      </c>
+      <c r="M85">
+        <v>54.00000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3501,28 +3450,28 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E86">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I86">
-        <v>712</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3530,28 +3479,28 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E87">
         <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I87">
-        <v>177.0000000000001</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3559,28 +3508,28 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E88">
         <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I88">
-        <v>157</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3588,28 +3537,28 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I89">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3617,28 +3566,40 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C90">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E90">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I90">
-        <v>252</v>
+        <v>69.9999999999998</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" t="s">
+        <v>72</v>
+      </c>
+      <c r="M90">
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3646,28 +3607,40 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="C91">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I91">
-        <v>41.99999999999989</v>
+        <v>3014.999999999999</v>
+      </c>
+      <c r="J91">
+        <v>26</v>
+      </c>
+      <c r="K91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" t="s">
+        <v>72</v>
+      </c>
+      <c r="M91">
+        <v>62.99999999999989</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3675,40 +3648,40 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C92">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E92">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I92">
-        <v>42</v>
+        <v>1012</v>
       </c>
       <c r="J92">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="L92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M92">
-        <v>366</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3716,40 +3689,40 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="C93">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E93">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I93">
-        <v>3214</v>
+        <v>2446</v>
       </c>
       <c r="J93">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M93">
-        <v>392.9999999999998</v>
+        <v>499.9999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3757,28 +3730,28 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E94">
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I94">
-        <v>228.0000000000001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3786,28 +3759,40 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C95">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I95">
-        <v>31.00000000000014</v>
+        <v>251.9999999999998</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
+        <v>72</v>
+      </c>
+      <c r="M95">
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3815,28 +3800,40 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C96">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E96">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" t="s">
+        <v>67</v>
+      </c>
+      <c r="H96" t="s">
+        <v>68</v>
+      </c>
+      <c r="I96">
+        <v>308</v>
+      </c>
+      <c r="J96">
         <v>20</v>
       </c>
-      <c r="F96" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" t="s">
-        <v>69</v>
-      </c>
-      <c r="H96" t="s">
-        <v>70</v>
-      </c>
-      <c r="I96">
-        <v>1876</v>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" t="s">
+        <v>72</v>
+      </c>
+      <c r="M96">
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3844,28 +3841,28 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C97">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I97">
-        <v>879</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3873,28 +3870,28 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="C98">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I98">
-        <v>223.9999999999998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3902,40 +3899,28 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="C99">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I99">
-        <v>456</v>
-      </c>
-      <c r="J99">
-        <v>18</v>
-      </c>
-      <c r="K99" t="s">
-        <v>54</v>
-      </c>
-      <c r="L99" t="s">
-        <v>73</v>
-      </c>
-      <c r="M99">
-        <v>227</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3943,28 +3928,40 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C100">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I100">
-        <v>98</v>
+        <v>940</v>
+      </c>
+      <c r="J100">
+        <v>32</v>
+      </c>
+      <c r="K100" t="s">
+        <v>60</v>
+      </c>
+      <c r="L100" t="s">
+        <v>72</v>
+      </c>
+      <c r="M100">
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3972,28 +3969,28 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C101">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D101" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I101">
-        <v>808</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4001,10 +3998,10 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C102">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D102" t="s">
         <v>43</v>
@@ -4013,28 +4010,28 @@
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I102">
-        <v>425</v>
+        <v>3507</v>
       </c>
       <c r="J102">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M102">
-        <v>105</v>
+        <v>262.9999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4042,40 +4039,40 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C103">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I103">
-        <v>932</v>
+        <v>1963</v>
       </c>
       <c r="J103">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M103">
-        <v>688</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4083,40 +4080,28 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C104">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E104">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I104">
-        <v>509</v>
-      </c>
-      <c r="J104">
-        <v>34</v>
-      </c>
-      <c r="K104" t="s">
-        <v>43</v>
-      </c>
-      <c r="L104" t="s">
-        <v>73</v>
-      </c>
-      <c r="M104">
-        <v>514</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4124,28 +4109,40 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I105">
-        <v>41</v>
+        <v>2036</v>
+      </c>
+      <c r="J105">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M105">
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4153,40 +4150,28 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I106">
-        <v>3808.999999999999</v>
-      </c>
-      <c r="J106">
-        <v>29</v>
-      </c>
-      <c r="K106" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" t="s">
-        <v>73</v>
-      </c>
-      <c r="M106">
-        <v>586.9999999999999</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4194,40 +4179,28 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="C107">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I107">
-        <v>1306</v>
-      </c>
-      <c r="J107">
-        <v>20</v>
-      </c>
-      <c r="K107" t="s">
-        <v>35</v>
-      </c>
-      <c r="L107" t="s">
-        <v>73</v>
-      </c>
-      <c r="M107">
-        <v>39</v>
+        <v>476.9999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4235,28 +4208,40 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C108">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I108">
-        <v>853.0000000000001</v>
+        <v>1045</v>
+      </c>
+      <c r="J108">
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>53</v>
+      </c>
+      <c r="L108" t="s">
+        <v>72</v>
+      </c>
+      <c r="M108">
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4264,28 +4249,40 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I109">
-        <v>1466</v>
+        <v>1593</v>
+      </c>
+      <c r="J109">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>52</v>
+      </c>
+      <c r="L109" t="s">
+        <v>72</v>
+      </c>
+      <c r="M109">
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4293,28 +4290,40 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C110">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I110">
-        <v>1579</v>
+        <v>1154</v>
+      </c>
+      <c r="J110">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s">
+        <v>57</v>
+      </c>
+      <c r="L110" t="s">
+        <v>72</v>
+      </c>
+      <c r="M110">
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4322,28 +4331,28 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C111">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E111">
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I111">
-        <v>463.9999999999998</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4351,40 +4360,40 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C112">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I112">
-        <v>1116</v>
+        <v>2505</v>
       </c>
       <c r="J112">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K112" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M112">
-        <v>254</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4392,40 +4401,40 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I113">
-        <v>1454</v>
+        <v>1397</v>
       </c>
       <c r="J113">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K113" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M113">
-        <v>77</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4433,28 +4442,40 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C114">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D114" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I114">
-        <v>1009</v>
+        <v>1391</v>
+      </c>
+      <c r="J114">
+        <v>23</v>
+      </c>
+      <c r="K114" t="s">
+        <v>38</v>
+      </c>
+      <c r="L114" t="s">
+        <v>72</v>
+      </c>
+      <c r="M114">
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4462,28 +4483,28 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C115">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I115">
-        <v>778</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4491,40 +4512,40 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E116">
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G116" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I116">
-        <v>2485</v>
+        <v>3253</v>
       </c>
       <c r="J116">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K116" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M116">
-        <v>372</v>
+        <v>350.9999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4532,40 +4553,40 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C117">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E117">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I117">
-        <v>1211</v>
+        <v>2164</v>
       </c>
       <c r="J117">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K117" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" t="s">
         <v>72</v>
       </c>
-      <c r="L117" t="s">
-        <v>73</v>
-      </c>
       <c r="M117">
-        <v>917</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4573,40 +4594,28 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C118">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I118">
-        <v>1600</v>
-      </c>
-      <c r="J118">
-        <v>26</v>
-      </c>
-      <c r="K118" t="s">
-        <v>36</v>
-      </c>
-      <c r="L118" t="s">
-        <v>73</v>
-      </c>
-      <c r="M118">
-        <v>562</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4614,28 +4623,28 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E119">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I119">
-        <v>544</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4643,40 +4652,28 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C120">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H120" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I120">
-        <v>3555</v>
-      </c>
-      <c r="J120">
-        <v>19</v>
-      </c>
-      <c r="K120" t="s">
-        <v>71</v>
-      </c>
-      <c r="L120" t="s">
-        <v>73</v>
-      </c>
-      <c r="M120">
-        <v>564.9999999999998</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4684,40 +4681,28 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I121">
-        <v>1859</v>
-      </c>
-      <c r="J121">
-        <v>15</v>
-      </c>
-      <c r="K121" t="s">
-        <v>65</v>
-      </c>
-      <c r="L121" t="s">
-        <v>73</v>
-      </c>
-      <c r="M121">
-        <v>316</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4725,28 +4710,28 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E122">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I122">
-        <v>649</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4754,40 +4739,28 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D123" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E123">
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I123">
-        <v>2067</v>
-      </c>
-      <c r="J123">
-        <v>11</v>
-      </c>
-      <c r="K123" t="s">
-        <v>35</v>
-      </c>
-      <c r="L123" t="s">
-        <v>73</v>
-      </c>
-      <c r="M123">
-        <v>164.9999999999999</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4795,28 +4768,28 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C124">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I124">
-        <v>349</v>
+        <v>449.9999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4824,28 +4797,40 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E125">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H125" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I125">
-        <v>269</v>
+        <v>920</v>
+      </c>
+      <c r="J125">
+        <v>11</v>
+      </c>
+      <c r="K125" t="s">
+        <v>36</v>
+      </c>
+      <c r="L125" t="s">
+        <v>72</v>
+      </c>
+      <c r="M125">
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4853,28 +4838,40 @@
         <v>14</v>
       </c>
       <c r="B126">
+        <v>56</v>
+      </c>
+      <c r="C126">
+        <v>1.4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" t="s">
+        <v>66</v>
+      </c>
+      <c r="G126" t="s">
+        <v>67</v>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126">
+        <v>1291</v>
+      </c>
+      <c r="J126">
+        <v>10</v>
+      </c>
+      <c r="K126" t="s">
         <v>15</v>
       </c>
-      <c r="C126">
-        <v>3.2</v>
-      </c>
-      <c r="D126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E126">
-        <v>40</v>
-      </c>
-      <c r="F126" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" t="s">
-        <v>70</v>
-      </c>
-      <c r="I126">
-        <v>1034</v>
+      <c r="L126" t="s">
+        <v>72</v>
+      </c>
+      <c r="M126">
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4882,28 +4879,40 @@
         <v>14</v>
       </c>
       <c r="B127">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C127">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D127" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E127">
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
+        <v>67</v>
+      </c>
+      <c r="H127" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127">
+        <v>1080</v>
+      </c>
+      <c r="J127">
+        <v>11</v>
+      </c>
+      <c r="K127" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" t="s">
+        <v>72</v>
+      </c>
+      <c r="M127">
         <v>69</v>
-      </c>
-      <c r="H127" t="s">
-        <v>70</v>
-      </c>
-      <c r="I127">
-        <v>436.9999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4911,40 +4920,28 @@
         <v>14</v>
       </c>
       <c r="B128">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C128">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E128">
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I128">
-        <v>864</v>
-      </c>
-      <c r="J128">
-        <v>10</v>
-      </c>
-      <c r="K128" t="s">
-        <v>15</v>
-      </c>
-      <c r="L128" t="s">
-        <v>73</v>
-      </c>
-      <c r="M128">
-        <v>145</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4955,37 +4952,25 @@
         <v>55</v>
       </c>
       <c r="C129">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E129">
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I129">
-        <v>1255</v>
-      </c>
-      <c r="J129">
-        <v>12</v>
-      </c>
-      <c r="K129" t="s">
-        <v>37</v>
-      </c>
-      <c r="L129" t="s">
-        <v>73</v>
-      </c>
-      <c r="M129">
-        <v>139</v>
+        <v>965</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4993,28 +4978,40 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C130">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G130" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H130" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I130">
-        <v>1087</v>
+        <v>337</v>
+      </c>
+      <c r="J130">
+        <v>11</v>
+      </c>
+      <c r="K130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L130" t="s">
+        <v>72</v>
+      </c>
+      <c r="M130">
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5022,28 +5019,40 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C131">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E131">
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G131" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H131" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I131">
-        <v>1103</v>
+        <v>873</v>
+      </c>
+      <c r="J131">
+        <v>11</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" t="s">
+        <v>72</v>
+      </c>
+      <c r="M131">
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5051,40 +5060,28 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C132">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E132">
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G132" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H132" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I132">
-        <v>1101</v>
-      </c>
-      <c r="J132">
-        <v>17</v>
-      </c>
-      <c r="K132" t="s">
-        <v>52</v>
-      </c>
-      <c r="L132" t="s">
-        <v>73</v>
-      </c>
-      <c r="M132">
-        <v>282</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5092,40 +5089,28 @@
         <v>14</v>
       </c>
       <c r="B133">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C133">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E133">
         <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G133" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133">
         <v>70</v>
-      </c>
-      <c r="I133">
-        <v>26</v>
-      </c>
-      <c r="J133">
-        <v>11</v>
-      </c>
-      <c r="K133" t="s">
-        <v>51</v>
-      </c>
-      <c r="L133" t="s">
-        <v>73</v>
-      </c>
-      <c r="M133">
-        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5133,40 +5118,40 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C134">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E134">
         <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G134" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H134" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I134">
-        <v>1082</v>
+        <v>1599</v>
       </c>
       <c r="J134">
         <v>12</v>
       </c>
       <c r="K134" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M134">
-        <v>481</v>
+        <v>846</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5174,28 +5159,28 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C135">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E135">
         <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H135" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I135">
-        <v>2252</v>
+        <v>992</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5203,28 +5188,28 @@
         <v>14</v>
       </c>
       <c r="B136">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C136">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I136">
-        <v>170</v>
+        <v>426.9999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5232,40 +5217,28 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D137" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E137">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G137" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H137" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I137">
-        <v>1319</v>
-      </c>
-      <c r="J137">
-        <v>10</v>
-      </c>
-      <c r="K137" t="s">
-        <v>28</v>
-      </c>
-      <c r="L137" t="s">
-        <v>73</v>
-      </c>
-      <c r="M137">
-        <v>366</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5273,28 +5246,28 @@
         <v>14</v>
       </c>
       <c r="B138">
+        <v>31</v>
+      </c>
+      <c r="C138">
+        <v>1.4</v>
+      </c>
+      <c r="D138" t="s">
         <v>18</v>
       </c>
-      <c r="C138">
-        <v>2.6</v>
-      </c>
-      <c r="D138" t="s">
-        <v>38</v>
-      </c>
       <c r="E138">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G138" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H138" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I138">
-        <v>738</v>
+        <v>813</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5302,28 +5275,28 @@
         <v>14</v>
       </c>
       <c r="B139">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C139">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E139">
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G139" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I139">
-        <v>426.9999999999999</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5331,28 +5304,28 @@
         <v>14</v>
       </c>
       <c r="B140">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C140">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E140">
         <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I140">
-        <v>568</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5360,28 +5333,28 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C141">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E141">
         <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I141">
-        <v>813</v>
+        <v>653</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5389,28 +5362,28 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C142">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E142">
         <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I142">
-        <v>380</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5418,28 +5391,28 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C143">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D143" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E143">
         <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I143">
-        <v>1013</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5447,28 +5420,28 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E144">
         <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G144" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H144" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I144">
-        <v>753</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5476,28 +5449,28 @@
         <v>14</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C145">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E145">
         <v>60</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G145" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I145">
-        <v>571</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5505,28 +5478,28 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D146" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E146">
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G146" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I146">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5534,28 +5507,28 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G147" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H147" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I147">
-        <v>180</v>
+        <v>887</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5563,28 +5536,28 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E148">
         <v>60</v>
       </c>
       <c r="F148" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G148" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I148">
-        <v>1371</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5592,28 +5565,28 @@
         <v>14</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E149">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G149" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H149" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I149">
-        <v>323</v>
+        <v>256.9999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5624,25 +5597,25 @@
         <v>14</v>
       </c>
       <c r="C150">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D150" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E150">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I150">
-        <v>634</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5650,28 +5623,28 @@
         <v>14</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="D151" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E151">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I151">
-        <v>277</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5679,114 +5652,27 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E152">
         <v>70</v>
       </c>
       <c r="F152" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G152" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H152" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I152">
-        <v>256.9999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153">
-        <v>14</v>
-      </c>
-      <c r="C153">
-        <v>1.3</v>
-      </c>
-      <c r="D153" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153">
-        <v>70</v>
-      </c>
-      <c r="F153" t="s">
-        <v>68</v>
-      </c>
-      <c r="G153" t="s">
-        <v>69</v>
-      </c>
-      <c r="H153" t="s">
-        <v>70</v>
-      </c>
-      <c r="I153">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154">
-        <v>15</v>
-      </c>
-      <c r="C154">
-        <v>1.4</v>
-      </c>
-      <c r="D154" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154">
-        <v>70</v>
-      </c>
-      <c r="F154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G154" t="s">
-        <v>69</v>
-      </c>
-      <c r="H154" t="s">
-        <v>70</v>
-      </c>
-      <c r="I154">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155">
-        <v>13</v>
-      </c>
-      <c r="C155">
-        <v>1.7</v>
-      </c>
-      <c r="D155" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155">
-        <v>70</v>
-      </c>
-      <c r="F155" t="s">
-        <v>68</v>
-      </c>
-      <c r="G155" t="s">
-        <v>69</v>
-      </c>
-      <c r="H155" t="s">
-        <v>70</v>
-      </c>
-      <c r="I155">
         <v>516</v>
       </c>
     </row>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="72">
   <si>
     <t>Sex</t>
   </si>
@@ -70,169 +70,166 @@
     <t>97%</t>
   </si>
   <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
     <t>94%</t>
   </si>
   <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>89%</t>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Fav</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>52%</t>
   </si>
   <si>
     <t>81%</t>
   </si>
   <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>2022-06-21</t>
+    <t>2022-07-03</t>
   </si>
 </sst>
 </file>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -654,28 +651,16 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2">
-        <v>1015.999999999999</v>
-      </c>
-      <c r="J2">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2">
-        <v>272</v>
+        <v>932.9999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -695,13 +680,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>58</v>
@@ -712,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>1.1</v>
@@ -724,28 +709,16 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4">
-        <v>357.0000000000005</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4">
-        <v>18.00000000000011</v>
+        <v>308.0000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -753,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>1.2</v>
@@ -765,28 +738,28 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>1466</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="I5">
-        <v>1568</v>
-      </c>
-      <c r="J5">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5">
-        <v>422</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -794,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>1.3</v>
@@ -806,16 +779,28 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>931</v>
+        <v>1009</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -823,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1.6</v>
@@ -835,16 +820,16 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>354</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -864,13 +849,13 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>50</v>
@@ -881,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>1.1</v>
@@ -893,28 +878,16 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>478.0000000000003</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9">
-        <v>96.0000000000001</v>
+        <v>413.0000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -922,40 +895,40 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>1.2</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>1184</v>
+        <v>1231</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>304</v>
+        <v>168.0000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -963,40 +936,40 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>1.3</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11">
-        <v>1202</v>
+        <v>1256</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1004,28 +977,40 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>1.4</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>1311</v>
+        <v>1356</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,40 +1018,40 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>365</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,28 +1059,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>1.6</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14">
-        <v>879</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1109,19 +1094,19 @@
         <v>1.9</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15">
         <v>109</v>
@@ -1132,113 +1117,89 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>1.1</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16">
-        <v>292.0000000000002</v>
-      </c>
-      <c r="J16">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16">
-        <v>72.00000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>211.0000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>1.2</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17">
-        <v>733</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17">
-        <v>142.0000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>1.3</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1255,19 +1216,19 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19">
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1278,112 +1239,112 @@
         <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1.6</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1.1</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>129.0000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>1.2</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1391,281 +1352,257 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24">
-        <v>37.00000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>1.1</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25">
-        <v>70.00000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>48.00000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26">
-        <v>125.9999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>70.00000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>167.9999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28">
-        <v>1285</v>
-      </c>
-      <c r="J28">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30">
-        <v>725.0000000000001</v>
-      </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30">
-        <v>749.0000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>2.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32">
         <v>990</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>1.2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32">
-        <v>212.9999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1673,40 +1610,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33">
-        <v>584</v>
-      </c>
-      <c r="J33">
-        <v>14</v>
-      </c>
-      <c r="K33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33">
-        <v>111</v>
+        <v>254.9999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1714,28 +1639,40 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34">
-        <v>1089</v>
+        <v>514</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1746,37 +1683,25 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I35">
-        <v>1252</v>
-      </c>
-      <c r="J35">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35">
-        <v>105</v>
+        <v>885</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1784,28 +1709,28 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I36">
-        <v>764</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1813,28 +1738,28 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37">
-        <v>201</v>
+        <v>991</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1842,28 +1767,28 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38">
-        <v>393</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1871,28 +1796,28 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39">
-        <v>683</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1900,28 +1825,28 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40">
-        <v>317</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1929,28 +1854,28 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41">
-        <v>196.9999999999999</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1958,40 +1883,28 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42">
-        <v>545</v>
-      </c>
-      <c r="J42">
-        <v>11</v>
-      </c>
-      <c r="K42" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" t="s">
-        <v>72</v>
-      </c>
-      <c r="M42">
-        <v>160</v>
+        <v>221.9999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -1999,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43">
-        <v>690</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2028,28 +1941,28 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44">
-        <v>383</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2057,28 +1970,28 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45">
-        <v>1127</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2086,28 +1999,28 @@
         <v>13</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I46">
-        <v>890</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2115,28 +2028,28 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47">
-        <v>86</v>
+        <v>955</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2144,28 +2057,28 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48">
-        <v>354</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2176,25 +2089,25 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49">
-        <v>965</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2202,28 +2115,28 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50">
-        <v>295</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2231,28 +2144,28 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51">
-        <v>181.9999999999999</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2260,28 +2173,28 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52">
-        <v>343</v>
+        <v>195.9999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2289,28 +2202,28 @@
         <v>13</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I53">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2318,28 +2231,28 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54">
-        <v>620</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2347,86 +2260,86 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I55">
-        <v>564</v>
+        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56">
-        <v>237</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>418</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57">
-        <v>62</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2434,28 +2347,28 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C58">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I58">
-        <v>264.0000000000005</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2463,28 +2376,28 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="C59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I59">
-        <v>737.9999999999992</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2492,40 +2405,28 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="C60">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I60">
-        <v>2294</v>
-      </c>
-      <c r="J60">
-        <v>59</v>
-      </c>
-      <c r="K60" t="s">
-        <v>70</v>
-      </c>
-      <c r="L60" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60">
-        <v>237</v>
+        <v>151.0000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2533,40 +2434,28 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="C61">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I61">
-        <v>146</v>
-      </c>
-      <c r="J61">
-        <v>62</v>
-      </c>
-      <c r="K61" t="s">
-        <v>45</v>
-      </c>
-      <c r="L61" t="s">
-        <v>72</v>
-      </c>
-      <c r="M61">
-        <v>381</v>
+        <v>659.9999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2574,28 +2463,28 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="C62">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I62">
-        <v>1679</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2603,40 +2492,40 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="C63">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63">
-        <v>1003</v>
+        <v>143</v>
       </c>
       <c r="J63">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" t="s">
         <v>71</v>
       </c>
-      <c r="L63" t="s">
-        <v>72</v>
-      </c>
       <c r="M63">
-        <v>358</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2644,28 +2533,28 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="C64">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I64">
-        <v>553</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2673,28 +2562,40 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C65">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I65">
-        <v>485.0000000000003</v>
+        <v>643</v>
+      </c>
+      <c r="J65">
+        <v>34</v>
+      </c>
+      <c r="K65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L65" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2702,40 +2603,28 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="C66">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66">
-        <v>1701</v>
-      </c>
-      <c r="J66">
-        <v>36</v>
-      </c>
-      <c r="K66" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" t="s">
-        <v>72</v>
-      </c>
-      <c r="M66">
-        <v>308.9999999999999</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2743,40 +2632,28 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="C67">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I67">
-        <v>2136</v>
-      </c>
-      <c r="J67">
-        <v>39</v>
-      </c>
-      <c r="K67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" t="s">
-        <v>72</v>
-      </c>
-      <c r="M67">
-        <v>605</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2784,40 +2661,28 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C68">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I68">
-        <v>1608</v>
-      </c>
-      <c r="J68">
-        <v>42</v>
-      </c>
-      <c r="K68" t="s">
-        <v>29</v>
-      </c>
-      <c r="L68" t="s">
-        <v>72</v>
-      </c>
-      <c r="M68">
-        <v>110</v>
+        <v>445.0000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2825,40 +2690,40 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="C69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69">
+        <v>1804</v>
+      </c>
+      <c r="J69">
+        <v>33</v>
+      </c>
+      <c r="K69" t="s">
         <v>68</v>
       </c>
-      <c r="I69">
-        <v>1707</v>
-      </c>
-      <c r="J69">
-        <v>39</v>
-      </c>
-      <c r="K69" t="s">
-        <v>41</v>
-      </c>
       <c r="L69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M69">
-        <v>443</v>
+        <v>163.9999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2866,40 +2731,40 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C70">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70">
-        <v>236</v>
+        <v>2305</v>
       </c>
       <c r="J70">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M70">
-        <v>253</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2907,28 +2772,40 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C71">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E71">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I71">
-        <v>759</v>
+        <v>1660</v>
+      </c>
+      <c r="J71">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" t="s">
+        <v>71</v>
+      </c>
+      <c r="M71">
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2936,40 +2813,40 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C72">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E72">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I72">
-        <v>447.0000000000002</v>
+        <v>1936</v>
       </c>
       <c r="J72">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M72">
-        <v>1.000000000000028</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2977,40 +2854,40 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C73">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I73">
-        <v>1296</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M73">
-        <v>174.9999999999999</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3018,40 +2895,40 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74">
+        <v>962</v>
+      </c>
+      <c r="J74">
+        <v>11</v>
+      </c>
+      <c r="K74" t="s">
         <v>24</v>
       </c>
-      <c r="E74">
-        <v>60</v>
-      </c>
-      <c r="F74" t="s">
-        <v>65</v>
-      </c>
-      <c r="G74" t="s">
-        <v>67</v>
-      </c>
-      <c r="H74" t="s">
-        <v>68</v>
-      </c>
-      <c r="I74">
-        <v>1857</v>
-      </c>
-      <c r="J74">
-        <v>22</v>
-      </c>
-      <c r="K74" t="s">
-        <v>39</v>
-      </c>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M74">
-        <v>438</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3059,40 +2936,40 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C75">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E75">
         <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I75">
-        <v>1054</v>
+        <v>406.0000000000002</v>
       </c>
       <c r="J75">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="L75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75">
-        <v>125</v>
+        <v>13.00000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3100,40 +2977,40 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C76">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E76">
         <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I76">
-        <v>1470</v>
+        <v>1371</v>
       </c>
       <c r="J76">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M76">
-        <v>134</v>
+        <v>152.9999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3141,28 +3018,40 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C77">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E77">
         <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I77">
-        <v>172</v>
+        <v>1885</v>
+      </c>
+      <c r="J77">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" t="s">
+        <v>71</v>
+      </c>
+      <c r="M77">
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3170,28 +3059,40 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C78">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I78">
-        <v>224</v>
+        <v>1067</v>
+      </c>
+      <c r="J78">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" t="s">
+        <v>71</v>
+      </c>
+      <c r="M78">
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3199,40 +3100,28 @@
         <v>14</v>
       </c>
       <c r="B79">
+        <v>70</v>
+      </c>
+      <c r="C79">
+        <v>1.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79">
         <v>60</v>
       </c>
-      <c r="C79">
-        <v>1.1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79">
-        <v>70</v>
-      </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I79">
-        <v>326.0000000000001</v>
-      </c>
-      <c r="J79">
-        <v>15</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>72</v>
-      </c>
-      <c r="M79">
-        <v>79.00000000000001</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3240,40 +3129,28 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C80">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I80">
-        <v>297.9999999999999</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" t="s">
-        <v>72</v>
-      </c>
-      <c r="M80">
-        <v>16.99999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3281,40 +3158,28 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E81">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I81">
-        <v>623</v>
-      </c>
-      <c r="J81">
-        <v>12</v>
-      </c>
-      <c r="K81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" t="s">
-        <v>72</v>
-      </c>
-      <c r="M81">
-        <v>323</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3322,28 +3187,28 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E82">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I82">
-        <v>679</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3351,28 +3216,40 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C83">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E83">
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I83">
-        <v>690</v>
+        <v>373.0000000000001</v>
+      </c>
+      <c r="J83">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" t="s">
+        <v>71</v>
+      </c>
+      <c r="M83">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3380,28 +3257,40 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C84">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E84">
         <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I84">
-        <v>224</v>
+        <v>382.9999999999999</v>
+      </c>
+      <c r="J84">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84">
+        <v>76.99999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3409,40 +3298,40 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C85">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I85">
-        <v>195.0000000000001</v>
+        <v>729</v>
       </c>
       <c r="J85">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M85">
-        <v>54.00000000000001</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3450,28 +3339,40 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C86">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I86">
-        <v>169</v>
+        <v>587</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" t="s">
+        <v>71</v>
+      </c>
+      <c r="M86">
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3479,28 +3380,28 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I87">
-        <v>201</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3508,28 +3409,28 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E88">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I88">
-        <v>252</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3537,28 +3438,28 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I89">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3566,40 +3467,40 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C90">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I90">
-        <v>69.9999999999998</v>
+        <v>231.0000000000001</v>
       </c>
       <c r="J90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M90">
-        <v>177</v>
+        <v>73.00000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3607,40 +3508,28 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="C91">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I91">
-        <v>3014.999999999999</v>
-      </c>
-      <c r="J91">
-        <v>26</v>
-      </c>
-      <c r="K91" t="s">
-        <v>55</v>
-      </c>
-      <c r="L91" t="s">
-        <v>72</v>
-      </c>
-      <c r="M91">
-        <v>62.99999999999989</v>
+        <v>253.9999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3648,40 +3537,28 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="C92">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I92">
-        <v>1012</v>
-      </c>
-      <c r="J92">
-        <v>28</v>
-      </c>
-      <c r="K92" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" t="s">
-        <v>72</v>
-      </c>
-      <c r="M92">
-        <v>825</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3689,40 +3566,28 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I93">
-        <v>2446</v>
-      </c>
-      <c r="J93">
-        <v>18</v>
-      </c>
-      <c r="K93" t="s">
-        <v>55</v>
-      </c>
-      <c r="L93" t="s">
-        <v>72</v>
-      </c>
-      <c r="M93">
-        <v>499.9999999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3730,28 +3595,28 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I94">
-        <v>999</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3759,40 +3624,28 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C95">
         <v>1.2</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I95">
-        <v>251.9999999999998</v>
-      </c>
-      <c r="J95">
-        <v>10</v>
-      </c>
-      <c r="K95" t="s">
-        <v>22</v>
-      </c>
-      <c r="L95" t="s">
-        <v>72</v>
-      </c>
-      <c r="M95">
-        <v>177</v>
+        <v>27.99999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3800,40 +3653,40 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="C96">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I96">
-        <v>308</v>
+        <v>3539.999999999999</v>
       </c>
       <c r="J96">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="L96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M96">
-        <v>150</v>
+        <v>455.9999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -3841,28 +3694,40 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C97">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I97">
-        <v>237</v>
+        <v>1008</v>
+      </c>
+      <c r="J97">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>69</v>
+      </c>
+      <c r="L97" t="s">
+        <v>71</v>
+      </c>
+      <c r="M97">
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3870,28 +3735,40 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C98">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="D98" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98">
         <v>20</v>
       </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I98">
-        <v>993</v>
+        <v>2502</v>
+      </c>
+      <c r="J98">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" t="s">
+        <v>71</v>
+      </c>
+      <c r="M98">
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3899,28 +3776,28 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="C99">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I99">
-        <v>345</v>
+        <v>899</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3928,40 +3805,28 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C100">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I100">
-        <v>940</v>
-      </c>
-      <c r="J100">
-        <v>32</v>
-      </c>
-      <c r="K100" t="s">
-        <v>60</v>
-      </c>
-      <c r="L100" t="s">
-        <v>72</v>
-      </c>
-      <c r="M100">
-        <v>843</v>
+        <v>209.9999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3969,28 +3834,40 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C101">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I101">
-        <v>200</v>
+        <v>366</v>
+      </c>
+      <c r="J101">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>70</v>
+      </c>
+      <c r="L101" t="s">
+        <v>71</v>
+      </c>
+      <c r="M101">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3998,40 +3875,28 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C102">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E102">
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I102">
-        <v>3507</v>
-      </c>
-      <c r="J102">
-        <v>24</v>
-      </c>
-      <c r="K102" t="s">
-        <v>46</v>
-      </c>
-      <c r="L102" t="s">
-        <v>72</v>
-      </c>
-      <c r="M102">
-        <v>262.9999999999999</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4039,40 +3904,28 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C103">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E103">
         <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I103">
-        <v>1963</v>
-      </c>
-      <c r="J103">
-        <v>23</v>
-      </c>
-      <c r="K103" t="s">
-        <v>48</v>
-      </c>
-      <c r="L103" t="s">
-        <v>72</v>
-      </c>
-      <c r="M103">
-        <v>873</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4080,10 +3933,10 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="C104">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D104" t="s">
         <v>58</v>
@@ -4092,16 +3945,28 @@
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H104" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I104">
-        <v>701</v>
+        <v>517</v>
+      </c>
+      <c r="J104">
+        <v>42</v>
+      </c>
+      <c r="K104" t="s">
+        <v>42</v>
+      </c>
+      <c r="L104" t="s">
+        <v>71</v>
+      </c>
+      <c r="M104">
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4109,40 +3974,28 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="C105">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="D105" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I105">
-        <v>2036</v>
-      </c>
-      <c r="J105">
-        <v>16</v>
-      </c>
-      <c r="K105" t="s">
-        <v>21</v>
-      </c>
-      <c r="L105" t="s">
-        <v>72</v>
-      </c>
-      <c r="M105">
-        <v>700</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4150,28 +4003,28 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C106">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I106">
-        <v>1699</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4179,28 +4032,40 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="C107">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I107">
-        <v>476.9999999999998</v>
+        <v>4031.999999999999</v>
+      </c>
+      <c r="J107">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s">
+        <v>59</v>
+      </c>
+      <c r="L107" t="s">
+        <v>71</v>
+      </c>
+      <c r="M107">
+        <v>455.9999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4208,40 +4073,40 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C108">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I108">
-        <v>1045</v>
+        <v>1935</v>
       </c>
       <c r="J108">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M108">
-        <v>154</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4249,40 +4114,28 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C109">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E109">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I109">
-        <v>1593</v>
-      </c>
-      <c r="J109">
-        <v>19</v>
-      </c>
-      <c r="K109" t="s">
-        <v>52</v>
-      </c>
-      <c r="L109" t="s">
-        <v>72</v>
-      </c>
-      <c r="M109">
-        <v>245</v>
+        <v>292.0000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4290,40 +4143,28 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C110">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I110">
-        <v>1154</v>
-      </c>
-      <c r="J110">
-        <v>20</v>
-      </c>
-      <c r="K110" t="s">
-        <v>57</v>
-      </c>
-      <c r="L110" t="s">
-        <v>72</v>
-      </c>
-      <c r="M110">
-        <v>192</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4331,28 +4172,28 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I111">
-        <v>841</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4360,40 +4201,28 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C112">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I112">
-        <v>2505</v>
-      </c>
-      <c r="J112">
-        <v>28</v>
-      </c>
-      <c r="K112" t="s">
-        <v>44</v>
-      </c>
-      <c r="L112" t="s">
-        <v>72</v>
-      </c>
-      <c r="M112">
-        <v>164</v>
+        <v>534.9999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4401,40 +4230,40 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C113">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I113">
-        <v>1397</v>
+        <v>1076</v>
       </c>
       <c r="J113">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K113" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M113">
-        <v>1072</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4442,40 +4271,40 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C114">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I114">
-        <v>1391</v>
+        <v>1792</v>
       </c>
       <c r="J114">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M114">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4483,28 +4312,40 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E115">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I115">
-        <v>527</v>
+        <v>1088</v>
+      </c>
+      <c r="J115">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" t="s">
+        <v>71</v>
+      </c>
+      <c r="M115">
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4512,10 +4353,10 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C116">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
@@ -4524,28 +4365,16 @@
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I116">
-        <v>3253</v>
-      </c>
-      <c r="J116">
-        <v>15</v>
-      </c>
-      <c r="K116" t="s">
-        <v>28</v>
-      </c>
-      <c r="L116" t="s">
-        <v>72</v>
-      </c>
-      <c r="M116">
-        <v>350.9999999999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4553,40 +4382,40 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C117">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E117">
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I117">
-        <v>2164</v>
+        <v>2720</v>
       </c>
       <c r="J117">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K117" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M117">
-        <v>698</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4594,28 +4423,40 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C118">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E118">
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I118">
-        <v>349</v>
+        <v>1280</v>
+      </c>
+      <c r="J118">
+        <v>29</v>
+      </c>
+      <c r="K118" t="s">
+        <v>58</v>
+      </c>
+      <c r="L118" t="s">
+        <v>71</v>
+      </c>
+      <c r="M118">
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4623,28 +4464,28 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C119">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E119">
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I119">
-        <v>2321</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4652,28 +4493,40 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C120">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E120">
         <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I120">
-        <v>216</v>
+        <v>615</v>
+      </c>
+      <c r="J120">
+        <v>29</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" t="s">
+        <v>71</v>
+      </c>
+      <c r="M120">
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4681,28 +4534,40 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C121">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E121">
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I121">
-        <v>249</v>
+        <v>3677</v>
+      </c>
+      <c r="J121">
+        <v>18</v>
+      </c>
+      <c r="K121" t="s">
+        <v>49</v>
+      </c>
+      <c r="L121" t="s">
+        <v>71</v>
+      </c>
+      <c r="M121">
+        <v>449.9999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4710,28 +4575,40 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E122">
         <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G122" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I122">
-        <v>369</v>
+        <v>2336</v>
+      </c>
+      <c r="J122">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
+        <v>58</v>
+      </c>
+      <c r="L122" t="s">
+        <v>71</v>
+      </c>
+      <c r="M122">
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4739,28 +4616,28 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C123">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E123">
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I123">
-        <v>1034</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4768,28 +4645,28 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C124">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I124">
-        <v>449.9999999999999</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4797,40 +4674,28 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C125">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="D125" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125">
         <v>40</v>
       </c>
-      <c r="E125">
-        <v>50</v>
-      </c>
       <c r="F125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I125">
-        <v>920</v>
-      </c>
-      <c r="J125">
-        <v>11</v>
-      </c>
-      <c r="K125" t="s">
-        <v>36</v>
-      </c>
-      <c r="L125" t="s">
-        <v>72</v>
-      </c>
-      <c r="M125">
-        <v>172</v>
+        <v>934</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4838,40 +4703,28 @@
         <v>14</v>
       </c>
       <c r="B126">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C126">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E126">
         <v>50</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I126">
-        <v>1291</v>
-      </c>
-      <c r="J126">
-        <v>10</v>
-      </c>
-      <c r="K126" t="s">
-        <v>15</v>
-      </c>
-      <c r="L126" t="s">
-        <v>72</v>
-      </c>
-      <c r="M126">
-        <v>204</v>
+        <v>489.9999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4879,40 +4732,28 @@
         <v>14</v>
       </c>
       <c r="B127">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C127">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E127">
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I127">
-        <v>1080</v>
-      </c>
-      <c r="J127">
-        <v>11</v>
-      </c>
-      <c r="K127" t="s">
-        <v>26</v>
-      </c>
-      <c r="L127" t="s">
-        <v>72</v>
-      </c>
-      <c r="M127">
-        <v>69</v>
+        <v>977</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4920,10 +4761,10 @@
         <v>14</v>
       </c>
       <c r="B128">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C128">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -4932,16 +4773,16 @@
         <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I128">
-        <v>1155</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4949,28 +4790,40 @@
         <v>14</v>
       </c>
       <c r="B129">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C129">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E129">
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I129">
-        <v>965</v>
+        <v>1069</v>
+      </c>
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129" t="s">
+        <v>51</v>
+      </c>
+      <c r="L129" t="s">
+        <v>71</v>
+      </c>
+      <c r="M129">
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4978,40 +4831,28 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C130">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D130" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E130">
         <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I130">
-        <v>337</v>
-      </c>
-      <c r="J130">
-        <v>11</v>
-      </c>
-      <c r="K130" t="s">
-        <v>27</v>
-      </c>
-      <c r="L130" t="s">
-        <v>72</v>
-      </c>
-      <c r="M130">
-        <v>484</v>
+        <v>910</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5019,40 +4860,40 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C131">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E131">
         <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I131">
-        <v>873</v>
+        <v>1415</v>
       </c>
       <c r="J131">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K131" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="L131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M131">
-        <v>13</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5060,28 +4901,40 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C132">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E132">
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I132">
-        <v>2050</v>
+        <v>440</v>
+      </c>
+      <c r="J132">
+        <v>15</v>
+      </c>
+      <c r="K132" t="s">
+        <v>24</v>
+      </c>
+      <c r="L132" t="s">
+        <v>71</v>
+      </c>
+      <c r="M132">
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5092,25 +4945,25 @@
         <v>38</v>
       </c>
       <c r="C133">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D133" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I133">
-        <v>70</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5118,40 +4971,28 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C134">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D134" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E134">
         <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I134">
-        <v>1599</v>
-      </c>
-      <c r="J134">
-        <v>12</v>
-      </c>
-      <c r="K134" t="s">
-        <v>57</v>
-      </c>
-      <c r="L134" t="s">
-        <v>72</v>
-      </c>
-      <c r="M134">
-        <v>846</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5159,28 +5000,28 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C135">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D135" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E135">
         <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I135">
-        <v>992</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5188,28 +5029,28 @@
         <v>14</v>
       </c>
       <c r="B136">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C136">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E136">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I136">
-        <v>426.9999999999999</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5217,28 +5058,28 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E137">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I137">
-        <v>568</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5246,28 +5087,28 @@
         <v>14</v>
       </c>
       <c r="B138">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I138">
-        <v>813</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5275,28 +5116,28 @@
         <v>14</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C139">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E139">
         <v>60</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G139" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I139">
-        <v>473</v>
+        <v>466.9999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5304,28 +5145,28 @@
         <v>14</v>
       </c>
       <c r="B140">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C140">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E140">
         <v>60</v>
       </c>
       <c r="F140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I140">
-        <v>1013</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5333,28 +5174,28 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C141">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E141">
         <v>60</v>
       </c>
       <c r="F141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I141">
-        <v>653</v>
+        <v>845</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5362,28 +5203,28 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C142">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D142" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E142">
         <v>60</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G142" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I142">
-        <v>548</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5391,28 +5232,28 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D143" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E143">
         <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I143">
-        <v>178</v>
+        <v>968</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5420,28 +5261,28 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E144">
         <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I144">
-        <v>180</v>
+        <v>874</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5452,25 +5293,25 @@
         <v>19</v>
       </c>
       <c r="C145">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D145" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E145">
         <v>60</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I145">
-        <v>1373</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5481,25 +5322,25 @@
         <v>14</v>
       </c>
       <c r="C146">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E146">
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I146">
-        <v>323</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5507,28 +5348,28 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E147">
         <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I147">
-        <v>887</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5536,28 +5377,28 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E148">
         <v>60</v>
       </c>
       <c r="F148" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I148">
-        <v>531</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5565,28 +5406,28 @@
         <v>14</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F149" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G149" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I149">
-        <v>256.9999999999999</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5594,28 +5435,28 @@
         <v>14</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I150">
-        <v>368</v>
+        <v>887</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5623,28 +5464,28 @@
         <v>14</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C151">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D151" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I151">
-        <v>383</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5652,28 +5493,144 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E152">
         <v>70</v>
       </c>
       <c r="F152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I152">
-        <v>516</v>
+        <v>276.9999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>1.3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153">
+        <v>70</v>
+      </c>
+      <c r="F153" t="s">
+        <v>65</v>
+      </c>
+      <c r="G153" t="s">
+        <v>66</v>
+      </c>
+      <c r="H153" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>1.4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>70</v>
+      </c>
+      <c r="F154" t="s">
+        <v>65</v>
+      </c>
+      <c r="G154" t="s">
+        <v>66</v>
+      </c>
+      <c r="H154" t="s">
+        <v>67</v>
+      </c>
+      <c r="I154">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>1.5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155">
+        <v>70</v>
+      </c>
+      <c r="F155" t="s">
+        <v>65</v>
+      </c>
+      <c r="G155" t="s">
+        <v>66</v>
+      </c>
+      <c r="H155" t="s">
+        <v>67</v>
+      </c>
+      <c r="I155">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>1.7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>47</v>
+      </c>
+      <c r="E156">
+        <v>70</v>
+      </c>
+      <c r="F156" t="s">
+        <v>65</v>
+      </c>
+      <c r="G156" t="s">
+        <v>66</v>
+      </c>
+      <c r="H156" t="s">
+        <v>67</v>
+      </c>
+      <c r="I156">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>875.0000000000002</v>
+        <v>875</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>260.0000000000005</v>
+        <v>260.0000000000006</v>
       </c>
       <c r="J60" t="n">
         <v>28</v>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>687.9999999999992</v>
+        <v>687.9999999999991</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>4034</v>
+        <v>4033.999999999999</v>
       </c>
       <c r="J107" t="n">
         <v>22</v>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -668,20 +668,20 @@
         <v>1482</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -723,20 +723,20 @@
         <v>1055</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -916,7 +916,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -961,22 +961,10 @@
       <c r="I11" t="n">
         <v>1256</v>
       </c>
-      <c r="J11" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>265</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1017,20 +1005,20 @@
         <v>1356</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -1072,20 +1060,20 @@
         <v>229</v>
       </c>
       <c r="J13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1781,7 +1769,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1867,7 +1855,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>875</v>
+        <v>875.0000000000002</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3126,7 +3114,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -3258,20 +3246,20 @@
         <v>258</v>
       </c>
       <c r="J63" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>226</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -3494,7 +3482,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3540,20 +3528,20 @@
         <v>1804</v>
       </c>
       <c r="J69" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>149.9999999999999</v>
+        <v>93.99999999999994</v>
       </c>
     </row>
     <row r="70">
@@ -3604,7 +3592,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3650,7 +3638,7 @@
         <v>1801</v>
       </c>
       <c r="J71" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3659,11 +3647,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72">
@@ -3714,7 +3702,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3812,7 +3800,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3855,7 +3843,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>506.0000000000003</v>
+        <v>506.0000000000002</v>
       </c>
       <c r="J75" t="n">
         <v>17</v>
@@ -3867,7 +3855,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3913,20 +3901,20 @@
         <v>1371</v>
       </c>
       <c r="J76" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>152.9999999999999</v>
+        <v>116.9999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -3977,7 +3965,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -4032,7 +4020,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -4216,7 +4204,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -4271,7 +4259,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -4326,7 +4314,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -4381,7 +4369,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -4565,7 +4553,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -4826,20 +4814,20 @@
         <v>35</v>
       </c>
       <c r="J95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
@@ -4878,23 +4866,23 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3542</v>
+        <v>3541.999999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>455.9999999999998</v>
+        <v>350.9999999999998</v>
       </c>
     </row>
     <row r="97">
@@ -4936,20 +4924,20 @@
         <v>1329</v>
       </c>
       <c r="J97" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>684</v>
+        <v>784</v>
       </c>
     </row>
     <row r="98">
@@ -4991,20 +4979,20 @@
         <v>2346</v>
       </c>
       <c r="J98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>439</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99">
@@ -5132,20 +5120,20 @@
         <v>466</v>
       </c>
       <c r="J101" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -5273,20 +5261,20 @@
         <v>317</v>
       </c>
       <c r="J104" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -5411,23 +5399,23 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>4033.999999999999</v>
+        <v>4034</v>
       </c>
       <c r="J107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>455.9999999999998</v>
+        <v>350.9999999999998</v>
       </c>
     </row>
     <row r="108">
@@ -5478,7 +5466,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -5521,7 +5509,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>640.0000000000002</v>
+        <v>640.0000000000003</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -5696,20 +5684,20 @@
         <v>1076</v>
       </c>
       <c r="J113" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
@@ -5760,7 +5748,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -5815,7 +5803,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -5904,20 +5892,20 @@
         <v>2520</v>
       </c>
       <c r="J117" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>380</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118">
@@ -5959,20 +5947,20 @@
         <v>1180</v>
       </c>
       <c r="J118" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119">
@@ -6057,20 +6045,20 @@
         <v>515</v>
       </c>
       <c r="J120" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121">
@@ -6109,7 +6097,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3678.999999999999</v>
+        <v>3679</v>
       </c>
       <c r="J121" t="n">
         <v>18</v>
@@ -6121,7 +6109,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -6176,7 +6164,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -6532,7 +6520,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -6630,7 +6618,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -6676,20 +6664,20 @@
         <v>340</v>
       </c>
       <c r="J133" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>435</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134">
@@ -6740,7 +6728,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -7139,7 +7127,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="M143" t="n">
